--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="825">
   <si>
     <t>type</t>
   </si>
@@ -1977,12 +1977,6 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>CalibrationReports</t>
-  </si>
-  <si>
-    <t>Calibration Reports</t>
-  </si>
-  <si>
     <t>Total Electricity Consumption Modeled</t>
   </si>
   <si>
@@ -2010,12 +2004,6 @@
     <t>Lighting Power Reduction</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
     <t>Electric Equipment Power Reduction</t>
   </si>
   <si>
@@ -2202,12 +2190,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_rmse</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2217,27 +2199,15 @@
     <t>Electric CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Electric NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>Gas CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Gas NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -2310,27 +2280,15 @@
     <t>Electric CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Electric NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Gas CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Gas NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Set Gas Burner Efficiency</t>
   </si>
   <si>
@@ -2517,7 +2475,46 @@
     <t>SEB4 baseboard SPEA2 2013</t>
   </si>
   <si>
-    <t>1.13.4</t>
+    <t>CalibrationReportsEnhanced</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>1.14.1</t>
   </si>
 </sst>
 </file>
@@ -6817,7 +6814,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6853,7 +6850,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6864,7 +6861,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6875,7 +6872,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6886,7 +6883,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6935,7 +6932,7 @@
         <v>456</v>
       </c>
       <c r="B9" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="33"/>
@@ -6957,7 +6954,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6968,10 +6965,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6979,10 +6976,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7047,7 +7044,7 @@
         <v>449</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7109,7 +7106,7 @@
     </row>
     <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="B27" s="30">
         <v>60</v>
@@ -7121,7 +7118,7 @@
     </row>
     <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="B28" s="30">
         <v>60</v>
@@ -7167,13 +7164,13 @@
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B32" s="30">
         <v>0</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D32" s="35"/>
     </row>
@@ -7197,7 +7194,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>30</v>
@@ -7210,7 +7207,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7224,7 +7221,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>447</v>
@@ -7238,7 +7235,7 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7250,7 +7247,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7265,7 +7262,7 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7299,8 +7296,8 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD22"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7398,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7463,13 +7460,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7482,17 +7479,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7501,17 +7498,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7520,17 +7517,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7539,17 +7536,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J8" s="31"/>
     </row>
@@ -7558,17 +7555,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7577,17 +7574,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7596,17 +7593,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7615,17 +7612,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7634,17 +7631,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7653,13 +7650,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7672,17 +7669,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7691,17 +7688,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7710,17 +7707,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7729,17 +7726,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J18" s="31"/>
     </row>
@@ -7748,17 +7745,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7767,17 +7764,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7786,17 +7783,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7805,17 +7802,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7824,13 +7821,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>646</v>
+        <v>811</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>645</v>
+        <v>811</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>645</v>
+        <v>811</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7882,7 +7879,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7911,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7919,10 +7916,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="30" t="s">
@@ -7937,10 +7934,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F28" s="63"/>
       <c r="G28" s="56" t="s">
@@ -7966,7 +7963,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7974,10 +7971,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F29" s="63"/>
       <c r="G29" s="30" t="s">
@@ -7992,10 +7989,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="30" t="s">
@@ -8112,7 +8109,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8143,7 +8140,7 @@
       </c>
       <c r="Q36" s="55"/>
       <c r="R36" s="52" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8378,7 +8375,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8388,7 +8385,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8411,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8419,7 +8416,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8429,7 +8426,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8440,7 +8437,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8450,7 +8447,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8461,7 +8458,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8471,7 +8468,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8482,7 +8479,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8500,7 +8497,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8510,7 +8507,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8521,7 +8518,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8531,7 +8528,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8542,7 +8539,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8552,7 +8549,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8563,13 +8560,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8601,17 +8598,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8634,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8660,7 +8657,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8670,7 +8667,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8681,7 +8678,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8691,7 +8688,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8702,7 +8699,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8712,7 +8709,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8723,7 +8720,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8741,7 +8738,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8751,7 +8748,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8762,7 +8759,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8772,7 +8769,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8783,7 +8780,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8793,7 +8790,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8804,13 +8801,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8821,7 +8818,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8842,17 +8839,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8875,7 +8872,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8901,7 +8898,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8911,7 +8908,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8922,7 +8919,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8932,7 +8929,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8943,7 +8940,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -8953,7 +8950,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -8964,7 +8961,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -8982,7 +8979,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -8992,7 +8989,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -9003,7 +9000,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -9013,7 +9010,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -9024,7 +9021,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -9034,7 +9031,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9083,7 +9080,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9093,7 +9090,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9116,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9124,17 +9121,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9157,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9183,7 +9180,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9193,7 +9190,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9204,7 +9201,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9214,7 +9211,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9225,7 +9222,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9235,7 +9232,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9246,7 +9243,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9264,7 +9261,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9274,7 +9271,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9285,7 +9282,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9295,7 +9292,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9306,7 +9303,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9316,7 +9313,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9330,10 +9327,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9344,7 +9341,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9354,7 +9351,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9377,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9385,7 +9382,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9395,7 +9392,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9418,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9426,7 +9423,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9449,13 +9446,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9481,10 +9478,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9514,7 +9511,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9524,10 +9521,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9556,7 +9553,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9566,10 +9563,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E95" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9598,7 +9595,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9607,13 +9604,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9639,10 +9636,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9672,7 +9669,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9682,10 +9679,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9714,7 +9711,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9724,10 +9721,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9756,7 +9753,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9764,13 +9761,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9781,17 +9778,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="F101" s="63"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9814,7 +9811,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9822,17 +9819,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9855,7 +9852,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9863,13 +9860,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10305,8 +10302,8 @@
   <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10345,7 +10342,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10383,7 +10380,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10481,7 +10478,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10513,7 +10510,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10542,12 +10539,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10571,12 +10568,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10600,12 +10597,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10628,12 +10625,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10656,12 +10653,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10684,12 +10681,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10712,12 +10709,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10741,12 +10738,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10770,12 +10767,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10799,12 +10796,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10828,12 +10825,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10857,12 +10854,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10886,12 +10883,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10915,12 +10912,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -10944,15 +10941,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -10973,15 +10970,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -11002,15 +10999,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -11031,15 +11028,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11060,15 +11057,15 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>656</v>
+        <v>812</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>62</v>
@@ -11089,15 +11086,15 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>657</v>
+        <v>813</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>62</v>
@@ -11118,15 +11115,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>720</v>
+        <v>814</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11146,15 +11143,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11174,15 +11171,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>725</v>
+        <v>816</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
@@ -11202,15 +11199,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>727</v>
+        <v>817</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
@@ -11230,15 +11227,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
@@ -11258,15 +11255,15 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>731</v>
+        <v>819</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
@@ -11286,12 +11283,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>756</v>
+        <v>820</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11309,12 +11306,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>758</v>
+        <v>821</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11332,12 +11329,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>760</v>
+        <v>822</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11355,11 +11352,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>762</v>
+        <v>823</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="826">
   <si>
     <t>type</t>
   </si>
@@ -2515,6 +2515,9 @@
   </si>
   <si>
     <t>1.14.1</t>
+  </si>
+  <si>
+    <t>Calibration Reports Enhanced</t>
   </si>
 </sst>
 </file>
@@ -6813,7 +6816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7295,9 +7298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7821,7 +7824,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>811</v>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2514,10 +2514,10 @@
     <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
   </si>
   <si>
-    <t>1.14.1</t>
-  </si>
-  <si>
     <t>Calibration Reports Enhanced</t>
+  </si>
+  <si>
+    <t>1.14.4</t>
   </si>
 </sst>
 </file>
@@ -6816,8 +6816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6875,7 +6875,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -7298,7 +7298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -7824,7 +7824,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>811</v>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1998,9 +1998,6 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>uniform_uncertain</t>
-  </si>
-  <si>
     <t>Lighting Power Reduction</t>
   </si>
   <si>
@@ -2518,6 +2515,9 @@
   </si>
   <si>
     <t>1.14.4</t>
+  </si>
+  <si>
+    <t>uniform</t>
   </si>
 </sst>
 </file>
@@ -6816,7 +6816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6853,7 +6853,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6864,7 +6864,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6875,7 +6875,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6886,7 +6886,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6957,7 +6957,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6968,7 +6968,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>650</v>
@@ -6979,7 +6979,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>650</v>
@@ -7047,7 +7047,7 @@
         <v>449</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7109,7 +7109,7 @@
     </row>
     <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B27" s="30">
         <v>60</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B28" s="30">
         <v>60</v>
@@ -7167,13 +7167,13 @@
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="B32" s="30">
+        <v>0</v>
+      </c>
+      <c r="C32" s="34" t="s">
         <v>743</v>
-      </c>
-      <c r="B32" s="30">
-        <v>0</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>744</v>
       </c>
       <c r="D32" s="35"/>
     </row>
@@ -7210,7 +7210,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7238,7 +7238,7 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7265,7 +7265,7 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7298,9 +7298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7398,7 +7398,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7463,13 +7463,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7482,17 +7482,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>782</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>783</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7501,17 +7501,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7520,17 +7520,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>788</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7539,14 +7539,14 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>790</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>791</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>646</v>
@@ -7558,17 +7558,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>792</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>793</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7577,17 +7577,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7596,17 +7596,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7615,17 +7615,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>795</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>796</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7634,17 +7634,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>805</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>806</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7653,13 +7653,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7672,17 +7672,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>782</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>783</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7691,17 +7691,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7710,17 +7710,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>788</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7729,14 +7729,14 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>790</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>791</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>648</v>
@@ -7748,17 +7748,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>792</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>793</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7767,17 +7767,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7786,17 +7786,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7805,17 +7805,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>795</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>796</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7824,13 +7824,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7882,7 +7882,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7911,7 +7911,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7919,10 +7919,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>669</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>670</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="30" t="s">
@@ -7937,10 +7937,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F28" s="63"/>
       <c r="G28" s="56" t="s">
@@ -7965,8 +7965,8 @@
       <c r="O28" s="58">
         <v>0.01</v>
       </c>
-      <c r="R28" s="56" t="s">
-        <v>652</v>
+      <c r="R28" s="40" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7974,10 +7974,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F29" s="63"/>
       <c r="G29" s="30" t="s">
@@ -7992,10 +7992,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="30" t="s">
@@ -8112,7 +8112,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8142,8 +8142,8 @@
         <v>1</v>
       </c>
       <c r="Q36" s="55"/>
-      <c r="R36" s="52" t="s">
-        <v>652</v>
+      <c r="R36" s="40" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8378,7 +8378,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8388,7 +8388,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8419,7 +8419,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8429,7 +8429,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8450,7 +8450,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8471,7 +8471,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8500,7 +8500,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8510,7 +8510,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8521,7 +8521,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8531,7 +8531,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8552,7 +8552,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8563,13 +8563,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
+        <v>748</v>
+      </c>
+      <c r="C54" s="46" t="s">
         <v>749</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>750</v>
-      </c>
       <c r="D54" s="46" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8601,17 +8601,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="E56" s="40" t="s">
         <v>751</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>752</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8634,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8660,7 +8660,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8670,7 +8670,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8681,7 +8681,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8691,7 +8691,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8712,7 +8712,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8723,7 +8723,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8741,7 +8741,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8751,7 +8751,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8762,7 +8762,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8772,7 +8772,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8793,7 +8793,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8804,13 +8804,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8821,7 +8821,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8842,17 +8842,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
+        <v>757</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>758</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>759</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8875,7 +8875,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8901,7 +8901,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8911,7 +8911,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8922,7 +8922,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8932,7 +8932,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8943,7 +8943,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -8953,7 +8953,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -8964,7 +8964,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -8982,7 +8982,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -8992,7 +8992,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -9003,7 +9003,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -9013,7 +9013,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -9034,7 +9034,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9083,7 +9083,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9093,7 +9093,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9116,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9124,17 +9124,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
+        <v>760</v>
+      </c>
+      <c r="E79" s="40" t="s">
         <v>761</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>762</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9183,7 +9183,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9193,7 +9193,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9204,7 +9204,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9214,7 +9214,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9225,7 +9225,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9235,7 +9235,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9264,7 +9264,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9274,7 +9274,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9285,7 +9285,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9295,7 +9295,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9316,7 +9316,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9330,10 +9330,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9344,7 +9344,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9354,7 +9354,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9385,7 +9385,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9395,7 +9395,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9426,7 +9426,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9449,13 +9449,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="C92" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="C92" s="49" t="s">
-        <v>734</v>
-      </c>
       <c r="D92" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9481,10 +9481,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="E93" s="50" t="s">
         <v>727</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9514,7 +9514,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9524,10 +9524,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="E94" s="50" t="s">
         <v>729</v>
-      </c>
-      <c r="E94" s="50" t="s">
-        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9556,7 +9556,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9566,10 +9566,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="E95" s="50" t="s">
         <v>731</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9598,7 +9598,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9607,13 +9607,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="C96" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="C96" s="49" t="s">
-        <v>736</v>
-      </c>
       <c r="D96" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9639,10 +9639,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9672,7 +9672,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9682,10 +9682,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9714,7 +9714,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9724,10 +9724,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9756,7 +9756,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9764,13 +9764,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9781,17 +9781,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F101" s="63"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9813,8 +9813,8 @@
       <c r="O101" s="58">
         <v>0.1</v>
       </c>
-      <c r="R101" s="56" t="s">
-        <v>652</v>
+      <c r="R101" s="40" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9822,17 +9822,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9855,7 +9855,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>652</v>
+        <v>825</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9863,13 +9863,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
+        <v>739</v>
+      </c>
+      <c r="C103" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="C103" s="37" t="s">
-        <v>741</v>
-      </c>
       <c r="D103" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10345,7 +10345,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10383,7 +10383,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10481,7 +10481,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10513,7 +10513,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10542,12 +10542,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10571,12 +10571,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10600,12 +10600,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10628,12 +10628,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10656,12 +10656,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10684,12 +10684,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10712,12 +10712,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10741,12 +10741,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10770,12 +10770,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10799,12 +10799,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10828,12 +10828,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10857,12 +10857,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10886,12 +10886,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10915,12 +10915,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -10944,15 +10944,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>707</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -10973,15 +10973,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -11002,15 +11002,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -11031,15 +11031,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>714</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11065,7 +11065,7 @@
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>646</v>
@@ -11094,7 +11094,7 @@
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>648</v>
@@ -11118,15 +11118,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11146,15 +11146,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11174,15 +11174,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
@@ -11202,15 +11202,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
@@ -11230,15 +11230,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
@@ -11258,15 +11258,15 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
@@ -11286,12 +11286,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11309,12 +11309,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11332,12 +11332,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11355,11 +11355,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="823">
   <si>
     <t>type</t>
   </si>
@@ -1422,12 +1422,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1860,9 +1854,6 @@
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -2514,10 +2505,10 @@
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
-    <t>1.14.4</t>
-  </si>
-  <si>
     <t>uniform</t>
+  </si>
+  <si>
+    <t>1.17.0</t>
   </si>
 </sst>
 </file>
@@ -4547,7 +4538,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4594,9 +4585,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6814,16 +6802,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
@@ -6832,7 +6820,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20" t="s">
@@ -6843,7 +6831,7 @@
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -6852,8 +6840,8 @@
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>768</v>
+      <c r="B3" s="25" t="s">
+        <v>765</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6863,8 +6851,8 @@
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>779</v>
+      <c r="B4" s="24" t="s">
+        <v>776</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6872,57 +6860,57 @@
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>824</v>
+        <v>465</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>822</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>774</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="C7" s="33" t="str">
+      <c r="B7" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D7" s="33" t="str">
+      <c r="D7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="C8" s="33" t="str">
+      <c r="B8" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6934,20 +6922,20 @@
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -6956,328 +6944,303 @@
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>809</v>
+      <c r="B12" s="24" t="s">
+        <v>806</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>775</v>
+      <c r="B13" s="24" t="s">
+        <v>772</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>650</v>
+      <c r="B14" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B15" s="26" t="b">
-        <v>1</v>
+      <c r="B15" s="25" t="s">
+        <v>461</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="C23" s="11" t="s">
+    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="29">
+        <v>92</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="B23" s="29">
+        <v>15</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="B25" s="29">
+        <v>60</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="B26" s="29">
+        <v>60</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="B27" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B29" s="30">
+        <v>2</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="B30" s="29">
+        <v>0</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="30">
-        <v>92</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="B25" s="30">
-        <v>15</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="B26" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="B27" s="30">
-        <v>60</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>808</v>
-      </c>
-      <c r="B28" s="30">
-        <v>60</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>566</v>
-      </c>
-      <c r="B29" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="B31" s="31">
-        <v>2</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>742</v>
-      </c>
-      <c r="B32" s="30">
-        <v>0</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>743</v>
-      </c>
-      <c r="D32" s="35"/>
-    </row>
-    <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="31" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D40" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
-      <c r="D44" s="2"/>
+      <c r="B41" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="25"/>
+      <c r="D42" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -7298,34 +7261,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="31" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="31" customWidth="1"/>
-    <col min="14" max="15" width="7.6640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="31"/>
-    <col min="17" max="17" width="11.44140625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="23" style="31" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="31" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="31"/>
-    <col min="24" max="24" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="30"/>
+    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="23" style="30" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
+    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
@@ -7336,33 +7299,33 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="60"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="36" t="s">
-        <v>472</v>
+      <c r="P1" s="35" t="s">
+        <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7372,12 +7335,12 @@
         <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" s="61"/>
+        <v>541</v>
+      </c>
+      <c r="F2" s="60"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7397,8 +7360,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>769</v>
+      <c r="F3" s="61" t="s">
+        <v>766</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7425,13 +7388,13 @@
         <v>9</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>8</v>
@@ -7458,646 +7421,646 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="b">
+    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>749</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>750</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="F12" s="62"/>
+      <c r="G12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>793</v>
+      </c>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>802</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>780</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>780</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="F13" s="62"/>
+      <c r="G13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>793</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>800</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>781</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="31" t="s">
+      <c r="E16" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>749</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="E21" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="62"/>
+      <c r="G21" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>750</v>
+      </c>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>791</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>752</v>
-      </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>753</v>
-      </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="31" t="s">
+      <c r="F22" s="62"/>
+      <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>796</v>
-      </c>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>796</v>
-      </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="b">
+      <c r="I22" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>803</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>780</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>780</v>
-      </c>
-      <c r="E14" s="37" t="s">
+      <c r="B23" s="36" t="s">
+        <v>820</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>799</v>
-      </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>752</v>
-      </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>753</v>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>801</v>
-      </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>823</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>810</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>810</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="30" t="s">
+    </row>
+    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="62"/>
+      <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="P25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="40" t="s">
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="K26" s="42">
-        <v>0</v>
-      </c>
-      <c r="L26" s="42">
+      <c r="F26" s="49"/>
+      <c r="G26" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="39">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>0</v>
+      </c>
+      <c r="L26" s="41">
         <v>100</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <v>15</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="41">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="41">
         <v>1</v>
       </c>
-      <c r="R26" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="R26" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>668</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>671</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="56">
-        <v>0</v>
-      </c>
-      <c r="K28" s="58">
-        <v>0</v>
-      </c>
-      <c r="L28" s="58">
+      <c r="E28" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="55">
+        <v>0</v>
+      </c>
+      <c r="K28" s="57">
+        <v>0</v>
+      </c>
+      <c r="L28" s="57">
         <v>0.1</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="57">
         <v>0.05</v>
       </c>
-      <c r="N28" s="58">
+      <c r="N28" s="57">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="58">
+      <c r="O28" s="57">
         <v>0.01</v>
       </c>
-      <c r="R28" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="R28" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="E30" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="63"/>
+      <c r="G30" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="30" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="F32" s="63"/>
+      <c r="G32" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="30" t="s">
+      <c r="F33" s="63"/>
+      <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="29">
         <v>1</v>
       </c>
-      <c r="P33" s="31"/>
-    </row>
-    <row r="34" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="b">
+      <c r="P33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="45" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="30" t="s">
+      <c r="F35" s="63"/>
+      <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="29" t="s">
         <v>81</v>
       </c>
       <c r="K35" s="3"/>
@@ -8105,65 +8068,65 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="39"/>
-    </row>
-    <row r="36" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>652</v>
-      </c>
-      <c r="E36" s="52" t="s">
+      <c r="Q35" s="38"/>
+    </row>
+    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="52">
-        <v>0</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54">
+      <c r="F36" s="63"/>
+      <c r="G36" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="51">
+        <v>0</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53">
         <v>-40</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="53">
         <v>40</v>
       </c>
-      <c r="M36" s="54">
-        <v>0</v>
-      </c>
-      <c r="N36" s="54">
+      <c r="M36" s="53">
+        <v>0</v>
+      </c>
+      <c r="N36" s="53">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="54">
+      <c r="O36" s="53">
         <v>1</v>
       </c>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="40" t="s">
-        <v>825</v>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="39" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="44" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30">
+      <c r="F37" s="63"/>
+      <c r="G37" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29">
         <v>0</v>
       </c>
       <c r="K37" s="3"/>
@@ -8171,26 +8134,26 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="39"/>
+      <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30">
+      <c r="F38" s="63"/>
+      <c r="G38" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29">
         <v>0</v>
       </c>
       <c r="K38" s="3"/>
@@ -8198,26 +8161,26 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="39"/>
+      <c r="Q38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="30" t="s">
+      <c r="F39" s="63"/>
+      <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30">
+      <c r="H39" s="29"/>
+      <c r="I39" s="29">
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
@@ -8225,26 +8188,26 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="39"/>
+      <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="64"/>
-      <c r="G40" s="30" t="s">
+      <c r="F40" s="63"/>
+      <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30" t="b">
+      <c r="H40" s="29"/>
+      <c r="I40" s="29" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="3"/>
@@ -8252,26 +8215,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="39"/>
+      <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="30" t="s">
+      <c r="F41" s="63"/>
+      <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30">
+      <c r="H41" s="29"/>
+      <c r="I41" s="29">
         <v>15</v>
       </c>
       <c r="K41" s="3"/>
@@ -8279,26 +8242,26 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="39"/>
+      <c r="Q41" s="38"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="64"/>
-      <c r="G42" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30">
+      <c r="F42" s="63"/>
+      <c r="G42" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29">
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
@@ -8306,26 +8269,26 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="39"/>
+      <c r="Q42" s="38"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="30" t="s">
+      <c r="F43" s="63"/>
+      <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30">
+      <c r="H43" s="29"/>
+      <c r="I43" s="29">
         <v>1</v>
       </c>
       <c r="K43" s="3"/>
@@ -8333,1109 +8296,1109 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="39"/>
-    </row>
-    <row r="44" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="b">
+      <c r="Q43" s="38"/>
+    </row>
+    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="30" t="s">
+    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="30" t="s">
+      <c r="F45" s="63"/>
+      <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="30" t="s">
+      <c r="J45" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="40" t="s">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>653</v>
-      </c>
-      <c r="E46" s="40" t="s">
+      <c r="D46" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I46" s="40">
-        <v>0</v>
-      </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="42">
+      <c r="F46" s="49"/>
+      <c r="G46" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I46" s="39">
+        <v>0</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="41">
         <v>-80</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46" s="41">
         <v>80</v>
       </c>
-      <c r="M46" s="42">
-        <v>0</v>
-      </c>
-      <c r="N46" s="42">
+      <c r="M46" s="41">
+        <v>0</v>
+      </c>
+      <c r="N46" s="41">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="42">
+      <c r="O46" s="41">
         <v>1</v>
       </c>
-      <c r="R46" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
+      <c r="R46" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="63"/>
+      <c r="G47" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I47" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="62"/>
+      <c r="G48" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I48" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="62"/>
+      <c r="G49" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I47" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="30" t="s">
+      <c r="I49" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="63"/>
-      <c r="G48" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I48" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="30" t="s">
+      <c r="E50" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="62"/>
+      <c r="G50" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="63"/>
-      <c r="G49" s="30" t="s">
+      <c r="E51" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="62"/>
+      <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H51" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I51" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I49" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="30" t="s">
+      <c r="E52" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="63"/>
-      <c r="G50" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="63"/>
-      <c r="G51" s="30" t="s">
+      <c r="E53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="63"/>
+      <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I51" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="63"/>
-      <c r="G52" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I52" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I53" s="30">
+      <c r="H53" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="b">
+    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="45" t="s">
+        <v>745</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="63"/>
+      <c r="G55" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="E56" s="39" t="s">
         <v>748</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>749</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>749</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>750</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>751</v>
-      </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I56" s="40">
+      <c r="F56" s="49"/>
+      <c r="G56" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I56" s="39">
         <v>0.8</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="42">
+      <c r="J56" s="42"/>
+      <c r="K56" s="41">
         <v>0.78</v>
       </c>
-      <c r="L56" s="42">
+      <c r="L56" s="41">
         <v>0.98</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56" s="41">
         <v>0.8</v>
       </c>
-      <c r="N56" s="42">
+      <c r="N56" s="41">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="42">
+      <c r="O56" s="41">
         <v>1</v>
       </c>
-      <c r="R56" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="R56" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="30" t="s">
+      <c r="F57" s="30"/>
+      <c r="G57" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I57" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="30" t="s">
+      <c r="I57" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I58" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I59" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I58" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="30" t="s">
+      <c r="I60" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E59" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I59" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30" t="s">
+      <c r="E61" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="63"/>
+      <c r="G61" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="30" t="s">
+      <c r="E62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="63"/>
+      <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="30" t="s">
+      <c r="H62" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I62" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I60" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="30" t="s">
+      <c r="E63" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="63"/>
+      <c r="G63" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E61" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="30" t="s">
+      <c r="E64" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="63"/>
+      <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I62" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I63" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="64"/>
-      <c r="G64" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I64" s="30">
+      <c r="H64" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46" t="b">
+    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="63"/>
+      <c r="G66" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="E67" s="39" t="s">
         <v>755</v>
       </c>
-      <c r="C65" s="46" t="s">
-        <v>754</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>754</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="64"/>
-      <c r="G66" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>758</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I67" s="40">
+      <c r="F67" s="49"/>
+      <c r="G67" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I67" s="39">
         <v>4</v>
       </c>
-      <c r="J67" s="43"/>
-      <c r="K67" s="42">
-        <v>2</v>
-      </c>
-      <c r="L67" s="42">
+      <c r="J67" s="42"/>
+      <c r="K67" s="41">
+        <v>2</v>
+      </c>
+      <c r="L67" s="41">
         <v>5</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67" s="41">
         <v>4</v>
       </c>
-      <c r="N67" s="42">
+      <c r="N67" s="41">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="42">
+      <c r="O67" s="41">
         <v>0.25</v>
       </c>
-      <c r="R67" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="30" t="s">
+      <c r="R67" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="64"/>
-      <c r="G68" s="30" t="s">
+      <c r="F68" s="63"/>
+      <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="I68" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="63"/>
+      <c r="G69" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I69" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I70" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="63"/>
+      <c r="G71" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I69" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
+      <c r="I71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E70" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="64"/>
-      <c r="G70" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I70" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
+      <c r="E72" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="63"/>
+      <c r="G72" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E71" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="30" t="s">
+      <c r="E73" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="63"/>
+      <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="30" t="s">
+      <c r="H73" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I73" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I71" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
+      <c r="E74" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="63"/>
+      <c r="G74" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I74" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E72" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="30" t="s">
+      <c r="E75" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="63"/>
+      <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I73" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="64"/>
-      <c r="G74" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I74" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I75" s="30">
+      <c r="H75" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="b">
+    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C76" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="D76" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
+    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="30" t="s">
+      <c r="F77" s="63"/>
+      <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="51" t="s">
+      <c r="I77" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="J77" s="30" t="s">
+      <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="40" t="s">
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="40" t="s">
-        <v>759</v>
-      </c>
-      <c r="E78" s="40" t="s">
+      <c r="D78" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I78" s="40">
-        <v>0</v>
-      </c>
-      <c r="J78" s="43"/>
-      <c r="K78" s="42">
+      <c r="F78" s="49"/>
+      <c r="G78" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I78" s="39">
+        <v>0</v>
+      </c>
+      <c r="J78" s="42"/>
+      <c r="K78" s="41">
         <v>-20</v>
       </c>
-      <c r="L78" s="42">
+      <c r="L78" s="41">
         <v>14</v>
       </c>
-      <c r="M78" s="42">
-        <v>0</v>
-      </c>
-      <c r="N78" s="42">
+      <c r="M78" s="41">
+        <v>0</v>
+      </c>
+      <c r="N78" s="41">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="42">
+      <c r="O78" s="41">
         <v>1</v>
       </c>
-      <c r="R78" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="40" t="s">
+      <c r="R78" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="40" t="s">
-        <v>760</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>761</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I79" s="40">
-        <v>0</v>
-      </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="42">
+      <c r="D79" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="F79" s="49"/>
+      <c r="G79" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I79" s="39">
+        <v>0</v>
+      </c>
+      <c r="J79" s="42"/>
+      <c r="K79" s="41">
         <v>-25</v>
       </c>
-      <c r="L79" s="42">
+      <c r="L79" s="41">
         <v>30</v>
       </c>
-      <c r="M79" s="42">
-        <v>0</v>
-      </c>
-      <c r="N79" s="42">
+      <c r="M79" s="41">
+        <v>0</v>
+      </c>
+      <c r="N79" s="41">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="42">
+      <c r="O79" s="41">
         <v>1</v>
       </c>
-      <c r="R79" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="30" t="s">
+      <c r="R79" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="64"/>
-      <c r="G80" s="30" t="s">
+      <c r="F80" s="63"/>
+      <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I80" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="30" t="s">
+      <c r="I80" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="63"/>
+      <c r="G81" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I81" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="63"/>
+      <c r="G82" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I82" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="63"/>
+      <c r="G83" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" s="64"/>
-      <c r="G81" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I81" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="30" t="s">
+      <c r="I83" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E82" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="64"/>
-      <c r="G82" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I82" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="30" t="s">
+      <c r="E84" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="62"/>
+      <c r="G84" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E83" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="30" t="s">
+      <c r="E85" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="62"/>
+      <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H83" s="30" t="s">
+      <c r="H85" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I85" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I83" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="30" t="s">
+      <c r="E86" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="62"/>
+      <c r="G86" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I86" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E84" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="30" t="s">
+      <c r="E87" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="62"/>
+      <c r="G87" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I87" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="45" t="s">
         <v>660</v>
       </c>
-      <c r="E85" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F85" s="63"/>
-      <c r="G85" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I85" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="30" t="s">
+      <c r="D88" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E86" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I86" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="30" t="s">
+      <c r="E89" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="49"/>
+      <c r="G89" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="E87" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="63"/>
-      <c r="G87" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I87" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="D88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="E88" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="40" t="s">
-        <v>664</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I89" s="40">
-        <v>0</v>
-      </c>
-      <c r="J89" s="43"/>
-      <c r="K89" s="42">
+      <c r="I89" s="39">
+        <v>0</v>
+      </c>
+      <c r="J89" s="42"/>
+      <c r="K89" s="41">
         <v>-6</v>
       </c>
-      <c r="L89" s="42">
-        <v>2</v>
-      </c>
-      <c r="M89" s="42">
-        <v>0</v>
-      </c>
-      <c r="N89" s="42">
+      <c r="L89" s="41">
+        <v>2</v>
+      </c>
+      <c r="M89" s="41">
+        <v>0</v>
+      </c>
+      <c r="N89" s="41">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="42">
+      <c r="O89" s="41">
         <v>1</v>
       </c>
-      <c r="R89" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="40" t="s">
+      <c r="R89" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="40" t="s">
-        <v>666</v>
-      </c>
-      <c r="E90" s="40" t="s">
+      <c r="D90" s="39" t="s">
+        <v>663</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H90" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I90" s="40">
-        <v>0</v>
-      </c>
-      <c r="J90" s="43"/>
-      <c r="K90" s="42">
+      <c r="F90" s="49"/>
+      <c r="G90" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="I90" s="39">
+        <v>0</v>
+      </c>
+      <c r="J90" s="42"/>
+      <c r="K90" s="41">
         <v>-6</v>
       </c>
-      <c r="L90" s="42">
+      <c r="L90" s="41">
         <v>3.9</v>
       </c>
-      <c r="M90" s="42">
-        <v>0</v>
-      </c>
-      <c r="N90" s="42">
+      <c r="M90" s="41">
+        <v>0</v>
+      </c>
+      <c r="N90" s="41">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="42">
+      <c r="O90" s="41">
         <v>1</v>
       </c>
-      <c r="R90" s="40" t="s">
-        <v>825</v>
+      <c r="R90" s="39" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E91" s="31" t="s">
+      <c r="B91" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="63"/>
-      <c r="G91" s="31" t="s">
+      <c r="F91" s="62"/>
+      <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I91" s="31" t="b">
+      <c r="I91" s="30" t="b">
         <v>0</v>
       </c>
       <c r="K91" s="3"/>
@@ -9445,845 +9408,845 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="b">
+      <c r="A92" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="49" t="s">
-        <v>732</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E92" s="46" t="s">
+      <c r="B92" s="48" t="s">
+        <v>729</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="46"/>
-    </row>
-    <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="50" t="s">
+      <c r="F92" s="45"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+    </row>
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
+      <c r="B93" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50" t="s">
-        <v>726</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50">
+      <c r="C93" s="49"/>
+      <c r="D93" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49">
         <v>1</v>
       </c>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50">
+      <c r="J93" s="49"/>
+      <c r="K93" s="49">
         <v>0.5</v>
       </c>
-      <c r="L93" s="50">
+      <c r="L93" s="49">
         <v>4.5</v>
       </c>
-      <c r="M93" s="42">
+      <c r="M93" s="41">
         <v>1.75</v>
       </c>
-      <c r="N93" s="40">
+      <c r="N93" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="50">
+      <c r="O93" s="49">
         <v>0.1</v>
       </c>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50" t="s">
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50" t="s">
+      <c r="C94" s="49"/>
+      <c r="D94" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="E94" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49">
+        <v>1</v>
+      </c>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L94" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="M94" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N94" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="O94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="49"/>
+      <c r="B95" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="E95" s="49" t="s">
         <v>728</v>
       </c>
-      <c r="E94" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50">
+      <c r="F95" s="49"/>
+      <c r="G95" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49">
         <v>1</v>
       </c>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50">
+      <c r="J95" s="49"/>
+      <c r="K95" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="49">
+        <v>3</v>
+      </c>
+      <c r="M95" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N95" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="O95" s="41">
         <v>0.1</v>
       </c>
-      <c r="L94" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="M94" s="42">
+      <c r="P95" s="41"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="39" t="s">
+        <v>821</v>
+      </c>
+      <c r="T95" s="30"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+    </row>
+    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="E97" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49">
+        <v>1</v>
+      </c>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L97" s="49">
+        <v>4</v>
+      </c>
+      <c r="M97" s="41">
         <v>1.75</v>
       </c>
-      <c r="N94" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="O94" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50" t="s">
-        <v>730</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50">
-        <v>1</v>
-      </c>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L95" s="50">
-        <v>3</v>
-      </c>
-      <c r="M95" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N95" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O95" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P95" s="42"/>
-      <c r="Q95" s="42"/>
-      <c r="R95" s="40" t="s">
-        <v>825</v>
-      </c>
-      <c r="T95" s="31"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="46"/>
-    </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50" t="s">
-        <v>736</v>
-      </c>
-      <c r="E97" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50">
-        <v>1</v>
-      </c>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L97" s="50">
-        <v>4</v>
-      </c>
-      <c r="M97" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N97" s="40">
+      <c r="N97" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="50">
+      <c r="O97" s="49">
         <v>0.1</v>
       </c>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40" t="s">
-        <v>825</v>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50" t="s">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="E98" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50">
+      <c r="C98" s="49"/>
+      <c r="D98" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49">
         <v>1</v>
       </c>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50">
+      <c r="J98" s="49"/>
+      <c r="K98" s="49">
         <v>0.5</v>
       </c>
-      <c r="L98" s="50">
+      <c r="L98" s="49">
         <v>4</v>
       </c>
-      <c r="M98" s="42">
+      <c r="M98" s="41">
         <v>1.75</v>
       </c>
-      <c r="N98" s="50">
+      <c r="N98" s="49">
         <v>0.25</v>
       </c>
-      <c r="O98" s="50">
+      <c r="O98" s="49">
         <v>0.1</v>
       </c>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40" t="s">
-        <v>825</v>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50" t="s">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="E99" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50">
+      <c r="C99" s="49"/>
+      <c r="D99" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49">
         <v>1</v>
       </c>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50">
+      <c r="J99" s="49"/>
+      <c r="K99" s="49">
         <v>0.5</v>
       </c>
-      <c r="L99" s="50">
+      <c r="L99" s="49">
         <v>3</v>
       </c>
-      <c r="M99" s="42">
+      <c r="M99" s="41">
         <v>1.75</v>
       </c>
-      <c r="N99" s="42">
+      <c r="N99" s="41">
         <v>0.25</v>
       </c>
-      <c r="O99" s="42">
+      <c r="O99" s="41">
         <v>0.1</v>
       </c>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="42"/>
-      <c r="R99" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="b">
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="55" t="s">
         <v>763</v>
       </c>
-      <c r="C100" s="46" t="s">
-        <v>762</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>762</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="56" t="s">
-        <v>766</v>
-      </c>
-      <c r="E101" s="56" t="s">
-        <v>764</v>
-      </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="I101" s="56">
+      <c r="E101" s="55" t="s">
+        <v>761</v>
+      </c>
+      <c r="F101" s="62"/>
+      <c r="G101" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="I101" s="55">
         <v>1</v>
       </c>
-      <c r="J101" s="59"/>
-      <c r="K101" s="58">
+      <c r="J101" s="58"/>
+      <c r="K101" s="57">
         <v>0.9</v>
       </c>
-      <c r="L101" s="58">
+      <c r="L101" s="57">
         <v>1</v>
       </c>
-      <c r="M101" s="58">
+      <c r="M101" s="57">
         <v>0.95</v>
       </c>
-      <c r="N101" s="58">
+      <c r="N101" s="57">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="58">
+      <c r="O101" s="57">
         <v>0.1</v>
       </c>
-      <c r="R101" s="40" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="40" t="s">
+      <c r="R101" s="39" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="40" t="s">
-        <v>767</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="F102" s="50"/>
-      <c r="G102" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I102" s="40">
+      <c r="D102" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="F102" s="49"/>
+      <c r="G102" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H102" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I102" s="39">
         <v>1450</v>
       </c>
-      <c r="J102" s="43"/>
-      <c r="K102" s="42">
-        <v>0</v>
-      </c>
-      <c r="L102" s="42">
+      <c r="J102" s="42"/>
+      <c r="K102" s="41">
+        <v>0</v>
+      </c>
+      <c r="L102" s="41">
         <v>3000</v>
       </c>
-      <c r="M102" s="42">
+      <c r="M102" s="41">
         <v>1450</v>
       </c>
-      <c r="N102" s="42">
+      <c r="N102" s="41">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="42">
+      <c r="O102" s="41">
         <v>50</v>
       </c>
-      <c r="R102" s="40" t="s">
-        <v>825</v>
+      <c r="R102" s="39" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="37" t="b">
+      <c r="A103" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B103" s="37" t="s">
-        <v>739</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="E103" s="37" t="s">
+      <c r="B103" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="E103" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="37"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="63"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
+      <c r="F104" s="62"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="47"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
+      <c r="F105" s="46"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="47"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
+      <c r="F106" s="46"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="47"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
+      <c r="F107" s="46"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="47"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
+      <c r="F108" s="46"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="47"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
+      <c r="F109" s="46"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="47"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
+      <c r="F110" s="46"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="47"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
+      <c r="F111" s="46"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="47"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
+      <c r="F112" s="46"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
     </row>
     <row r="114" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="116" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
     </row>
     <row r="117" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
     </row>
     <row r="118" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
     </row>
     <row r="119" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
     </row>
     <row r="122" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
     </row>
     <row r="123" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
     </row>
     <row r="124" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I124" s="31"/>
-      <c r="J124" s="31"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
     </row>
     <row r="125" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
     </row>
     <row r="126" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I126" s="31"/>
-      <c r="J126" s="31"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
     </row>
     <row r="127" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
     </row>
     <row r="128" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
     </row>
     <row r="129" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
     </row>
     <row r="130" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
     </row>
     <row r="131" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
     </row>
     <row r="132" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I132" s="31"/>
-      <c r="J132" s="31"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
     </row>
     <row r="133" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I133" s="31"/>
-      <c r="J133" s="31"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
     </row>
     <row r="134" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I134" s="31"/>
-      <c r="J134" s="31"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
     </row>
     <row r="135" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
     </row>
     <row r="136" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
     </row>
     <row r="137" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I137" s="31"/>
-      <c r="J137" s="31"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
     </row>
     <row r="138" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I138" s="31"/>
-      <c r="J138" s="31"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
     </row>
     <row r="139" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I139" s="31"/>
-      <c r="J139" s="31"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
     </row>
     <row r="140" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I140" s="31"/>
-      <c r="J140" s="31"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
     </row>
     <row r="141" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
     </row>
     <row r="142" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I142" s="31"/>
-      <c r="J142" s="31"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
     </row>
     <row r="143" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I143" s="31"/>
-      <c r="J143" s="31"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
     </row>
     <row r="144" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I144" s="31"/>
-      <c r="J144" s="31"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30"/>
     </row>
     <row r="145" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I145" s="31"/>
-      <c r="J145" s="31"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
     </row>
     <row r="146" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
     </row>
     <row r="148" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
     </row>
     <row r="149" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
     </row>
     <row r="150" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
     </row>
     <row r="151" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
     </row>
     <row r="152" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I152" s="31"/>
-      <c r="J152" s="31"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
     </row>
     <row r="153" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
     </row>
     <row r="154" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
     </row>
     <row r="155" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
     </row>
     <row r="156" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I156" s="31"/>
-      <c r="J156" s="31"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
     </row>
     <row r="157" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I157" s="31"/>
-      <c r="J157" s="31"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
     </row>
     <row r="158" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I158" s="31"/>
-      <c r="J158" s="31"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
     </row>
     <row r="159" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I159" s="31"/>
-      <c r="J159" s="31"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
     </row>
     <row r="160" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I160" s="31"/>
-      <c r="J160" s="31"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
     </row>
     <row r="161" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I161" s="31"/>
-      <c r="J161" s="31"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
     </row>
     <row r="162" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I162" s="31"/>
-      <c r="J162" s="31"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
     </row>
     <row r="163" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I163" s="31"/>
-      <c r="J163" s="31"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
     </row>
     <row r="164" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I164" s="31"/>
-      <c r="J164" s="31"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
     </row>
     <row r="165" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I165" s="31"/>
-      <c r="J165" s="31"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
     </row>
     <row r="166" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I166" s="31"/>
-      <c r="J166" s="31"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
     </row>
     <row r="167" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I167" s="31"/>
-      <c r="J167" s="31"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
     </row>
     <row r="168" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I168" s="31"/>
-      <c r="J168" s="31"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
     </row>
     <row r="169" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I169" s="31"/>
-      <c r="J169" s="31"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
     </row>
     <row r="170" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I170" s="31"/>
-      <c r="J170" s="31"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
     </row>
     <row r="171" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I171" s="31"/>
-      <c r="J171" s="31"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
     </row>
     <row r="172" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I172" s="31"/>
-      <c r="J172" s="31"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
     </row>
     <row r="173" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I173" s="31"/>
-      <c r="J173" s="31"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
     </row>
     <row r="174" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I174" s="31"/>
-      <c r="J174" s="31"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
     </row>
     <row r="175" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I175" s="31"/>
-      <c r="J175" s="31"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
     </row>
     <row r="176" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I176" s="31"/>
-      <c r="J176" s="31"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
     </row>
     <row r="177" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I177" s="31"/>
-      <c r="J177" s="31"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="30"/>
     </row>
     <row r="178" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I178" s="31"/>
-      <c r="J178" s="31"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
     </row>
     <row r="179" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="30"/>
     </row>
     <row r="180" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I180" s="31"/>
-      <c r="J180" s="31"/>
+      <c r="I180" s="30"/>
+      <c r="J180" s="30"/>
     </row>
     <row r="181" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I181" s="31"/>
-      <c r="J181" s="31"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
     </row>
     <row r="182" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I182" s="31"/>
-      <c r="J182" s="31"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30"/>
     </row>
     <row r="183" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I183" s="31"/>
-      <c r="J183" s="31"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
     </row>
     <row r="184" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I184" s="31"/>
-      <c r="J184" s="31"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
     </row>
     <row r="185" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I185" s="31"/>
-      <c r="J185" s="31"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="30"/>
     </row>
     <row r="186" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I186" s="31"/>
-      <c r="J186" s="31"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="30"/>
     </row>
     <row r="187" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I187" s="31"/>
-      <c r="J187" s="31"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="30"/>
     </row>
     <row r="188" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I188" s="31"/>
-      <c r="J188" s="31"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
     </row>
     <row r="189" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I189" s="31"/>
-      <c r="J189" s="31"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="30"/>
     </row>
     <row r="190" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I190" s="31"/>
-      <c r="J190" s="31"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
     </row>
     <row r="191" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I191" s="31"/>
-      <c r="J191" s="31"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="30"/>
     </row>
     <row r="192" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I192" s="31"/>
-      <c r="J192" s="31"/>
+      <c r="I192" s="30"/>
+      <c r="J192" s="30"/>
     </row>
     <row r="193" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I193" s="31"/>
-      <c r="J193" s="31"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="30"/>
     </row>
     <row r="194" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I194" s="31"/>
-      <c r="J194" s="31"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="30"/>
     </row>
     <row r="195" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I195" s="31"/>
-      <c r="J195" s="31"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30"/>
     </row>
     <row r="196" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I196" s="31"/>
-      <c r="J196" s="31"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="30"/>
     </row>
     <row r="197" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I197" s="31"/>
-      <c r="J197" s="31"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="30"/>
     </row>
     <row r="198" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I198" s="31"/>
-      <c r="J198" s="31"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="30"/>
     </row>
     <row r="199" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I199" s="31"/>
-      <c r="J199" s="31"/>
+      <c r="I199" s="30"/>
+      <c r="J199" s="30"/>
     </row>
     <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="31"/>
-      <c r="J200" s="31"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA127"/>
@@ -10311,26 +10274,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="31"/>
+    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="60"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -10344,11 +10307,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>770</v>
+      <c r="B2" s="64" t="s">
+        <v>767</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10360,40 +10323,40 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>768</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>771</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>625</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>459</v>
@@ -10405,1145 +10368,1145 @@
         <v>459</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>770</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30" t="b">
+      <c r="E7" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30" t="b">
+      <c r="I7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>772</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30" t="b">
+      <c r="I8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>773</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>627</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30" t="b">
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
-        <v>678</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30" t="b">
+      <c r="I10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30" t="b">
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30" t="b">
+      <c r="I12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30" t="b">
+      <c r="I13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30" t="b">
+      <c r="I14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30" t="b">
+      <c r="I15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>689</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
-        <v>690</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30" t="b">
+      <c r="I16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30" t="b">
+      <c r="I17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30" t="s">
-        <v>694</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30" t="b">
+      <c r="I18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>695</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30" t="s">
-        <v>696</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30" t="b">
+      <c r="I19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
-        <v>698</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="b">
+      <c r="I20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>699</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30" t="s">
-        <v>700</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30" t="b">
+      <c r="I21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>701</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30" t="b">
+      <c r="I22" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>703</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
+      <c r="I23" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>704</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="30" t="b">
+      <c r="F24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>705</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="b">
+      <c r="I24" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
-        <v>709</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30" t="b">
+      <c r="I25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>808</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
-        <v>711</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30" t="b">
+      <c r="I26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="I27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>810</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
         <v>713</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
         <v>714</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30" t="b">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30" t="b">
+      <c r="H30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30" t="b">
+      <c r="I30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
         <v>813</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30" t="b">
+      <c r="E31" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="H31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
         <v>716</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
         <v>814</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30" t="b">
+      <c r="E32" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="H32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
         <v>717</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
         <v>815</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="30" t="b">
+      <c r="E33" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="30" t="b">
+      <c r="H33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="30" t="b">
+      <c r="I33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
         <v>816</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="30" t="b">
+      <c r="E34" s="29"/>
+      <c r="F34" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="30" t="b">
+      <c r="H34" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="30" t="b">
+      <c r="I34" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="30" t="b">
+      <c r="H35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H32" s="30" t="b">
+      <c r="I35" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="30" t="b">
+      <c r="H36" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30" t="s">
-        <v>818</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="30" t="b">
+      <c r="I36" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>744</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="D37" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H33" s="30" t="b">
+      <c r="H37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>746</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
-        <v>821</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="30" t="b">
+      <c r="I37" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
+      <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
+      <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
+      <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
+      <c r="B58" s="29"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
+      <c r="B59" s="29"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
+      <c r="B61" s="29"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
+      <c r="B68" s="29"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
+      <c r="B69" s="29"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="30"/>
+      <c r="B70" s="29"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="30"/>
+      <c r="B71" s="29"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="30"/>
+      <c r="B72" s="29"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="30"/>
+      <c r="B73" s="29"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
+      <c r="B74" s="29"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="30"/>
+      <c r="B75" s="29"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="30"/>
+      <c r="B76" s="29"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="30"/>
+      <c r="B77" s="29"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
+      <c r="B78" s="29"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="30"/>
+      <c r="B79" s="29"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
+      <c r="B80" s="29"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
+      <c r="B81" s="29"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="30"/>
+      <c r="B82" s="29"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="30"/>
+      <c r="B83" s="29"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
+      <c r="B84" s="29"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
+      <c r="B85" s="29"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
+      <c r="B86" s="29"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="30"/>
+      <c r="B87" s="29"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="30"/>
+      <c r="B88" s="29"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
+      <c r="B89" s="29"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="30"/>
+      <c r="B90" s="29"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="30"/>
+      <c r="B91" s="29"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="30"/>
+      <c r="B92" s="29"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="30"/>
+      <c r="B93" s="29"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="30"/>
+      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18916,10 +18879,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C328" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D328" t="s">
         <v>66</v>
@@ -18930,10 +18893,10 @@
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D329" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -18942,10 +18905,10 @@
         <v>60</v>
       </c>
       <c r="H329" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -18953,10 +18916,10 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D330" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -18973,10 +18936,10 @@
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D331" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -18993,10 +18956,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D332" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -19013,10 +18976,10 @@
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D333" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -19030,10 +18993,10 @@
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D334" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -19042,10 +19005,10 @@
         <v>60</v>
       </c>
       <c r="H334" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I334" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -19053,10 +19016,10 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D335" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -19065,10 +19028,10 @@
         <v>60</v>
       </c>
       <c r="H335" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I335" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -19076,10 +19039,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C336" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D336" t="s">
         <v>66</v>
@@ -19090,10 +19053,10 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D337" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -19102,10 +19065,10 @@
         <v>60</v>
       </c>
       <c r="H337" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I337" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
@@ -19113,10 +19076,10 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D338" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -19125,10 +19088,10 @@
         <v>60</v>
       </c>
       <c r="H338" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I338" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
@@ -19136,10 +19099,10 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D339" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -19156,10 +19119,10 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D340" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -19176,10 +19139,10 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D341" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -19193,10 +19156,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>66</v>
@@ -19220,10 +19183,10 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D343" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -19232,10 +19195,10 @@
         <v>60</v>
       </c>
       <c r="H343" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I343" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -19249,10 +19212,10 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D344" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -19287,10 +19250,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C345" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>66</v>
@@ -19301,10 +19264,10 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
+        <v>516</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -19515,10 +19478,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C357" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D357" t="s">
         <v>66</v>
@@ -19529,10 +19492,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D358" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -19549,10 +19512,10 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D359" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -19569,10 +19532,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>66</v>
@@ -19585,10 +19548,10 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D361" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -19598,10 +19561,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I361" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -19612,10 +19575,10 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D362" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -19652,10 +19615,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C363" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>66</v>
@@ -19666,10 +19629,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D364" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -19686,10 +19649,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C365" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>66</v>
@@ -19700,10 +19663,10 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D366" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -19755,130 +19718,130 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="C5" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="C6" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D7" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="D8" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B9" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>601</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+      <c r="G11" t="s">
         <v>567</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" t="s">
-        <v>552</v>
-      </c>
-      <c r="G11" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -19889,10 +19852,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -19903,66 +19866,66 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O16" t="s">
-        <v>561</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>550</v>
+        <v>559</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G17" t="s">
         <v>452</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J17" s="29">
+        <v>534</v>
+      </c>
+      <c r="J17" s="28">
         <v>0.01</v>
       </c>
-      <c r="K17" s="31" t="s">
-        <v>575</v>
+      <c r="K17" s="30" t="s">
+        <v>573</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -19970,8 +19933,8 @@
       <c r="P17">
         <v>30</v>
       </c>
-      <c r="Q17" s="30" t="s">
-        <v>577</v>
+      <c r="Q17" s="29" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -19985,232 +19948,232 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J18" s="29">
+        <v>539</v>
+      </c>
+      <c r="J18" s="28">
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>574</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>562</v>
+        <v>572</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="N18" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>562</v>
+      <c r="N18" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J19" s="29">
+        <v>553</v>
+      </c>
+      <c r="J19" s="28">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>581</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>563</v>
+        <v>579</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>561</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M20">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>579</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>564</v>
+        <v>577</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>562</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>536</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M21" s="29">
+        <v>558</v>
+      </c>
+      <c r="M21" s="28">
         <v>0.01</v>
       </c>
-      <c r="N21" s="31" t="s">
-        <v>580</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>565</v>
+      <c r="N21" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>563</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" s="30" t="s">
-        <v>585</v>
+      <c r="Q21" s="29" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J22" s="31">
+        <v>537</v>
+      </c>
+      <c r="J22" s="30">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="M22" s="29">
+        <v>534</v>
+      </c>
+      <c r="M22" s="28">
         <v>0.01</v>
       </c>
-      <c r="N22" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="O22" s="31" t="s">
-        <v>566</v>
+      <c r="N22" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>564</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="M23" s="29">
+        <v>539</v>
+      </c>
+      <c r="M23" s="28">
         <v>0.01</v>
       </c>
-      <c r="N23" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>538</v>
+      <c r="N23" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="M24" s="29">
+        <v>553</v>
+      </c>
+      <c r="M24" s="28">
         <v>45036000000000</v>
       </c>
-      <c r="N24" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="P24" s="31">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="30" t="s">
+      <c r="N24" s="29" t="s">
         <v>571</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="P24" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="M25" s="30">
+        <v>554</v>
+      </c>
+      <c r="M25" s="29">
         <v>100</v>
       </c>
-      <c r="N25" s="30" t="s">
-        <v>572</v>
+      <c r="N25" s="29" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M27" s="31">
-        <v>2</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>571</v>
+        <v>537</v>
+      </c>
+      <c r="M27" s="30">
+        <v>2</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -2508,7 +2508,7 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.17.0</t>
+    <t>1.21.14</t>
   </si>
 </sst>
 </file>
@@ -6804,8 +6804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6923,7 +6923,7 @@
         <v>456</v>
       </c>
       <c r="B9" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="32"/>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="772">
   <si>
     <t>type</t>
   </si>
@@ -1911,33 +1911,15 @@
     <t>Measure/Variable Unique Name</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_natural_gas</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_electricity</t>
-  </si>
-  <si>
     <t>standard_report_legacy.total_energy</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_source_energy</t>
-  </si>
-  <si>
     <t>Taxonomy Identifier</t>
   </si>
   <si>
     <t>total_site_energy_intensity</t>
   </si>
   <si>
-    <t>total_source_energy_intensity</t>
-  </si>
-  <si>
-    <t>total_electricity_intensity</t>
-  </si>
-  <si>
-    <t>total_natural_gas_intensity</t>
-  </si>
-  <si>
     <t>Machine Name thats Link to Dencity Taxonomy</t>
   </si>
   <si>
@@ -1947,15 +1929,6 @@
     <t>Total Site Energy Intensity</t>
   </si>
   <si>
-    <t>Total Source Energy Intensity</t>
-  </si>
-  <si>
-    <t>Total Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>Total Electricity Intensity</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -2064,120 +2037,6 @@
     <t>Space Infiltration Reduction</t>
   </si>
   <si>
-    <t>Natural Gas Heating Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heating_natural_gas</t>
-  </si>
-  <si>
-    <t>Cooling Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.cooling_electricity</t>
-  </si>
-  <si>
-    <t>Interior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Exterior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_natural_gas</t>
-  </si>
-  <si>
-    <t>Experior Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Fans Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.fans_electricity</t>
-  </si>
-  <si>
-    <t>Pumps Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.pumps_electricity</t>
-  </si>
-  <si>
-    <t>Heat Rejection Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heat_rejection_electricity</t>
-  </si>
-  <si>
-    <t>Humidification Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.humidification_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_natural_gas</t>
-  </si>
-  <si>
-    <t>Refrigeration Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.refrigeration_electricity</t>
-  </si>
-  <si>
-    <t>Unmet Cooling Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>Unmet Heating Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
-    <t>Total Unmet Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
-    <t>Building Area</t>
-  </si>
-  <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2250,12 +2109,6 @@
     <t>Roof thermal mass multiplier</t>
   </si>
   <si>
-    <t>Server Directory Cleanup</t>
-  </si>
-  <si>
-    <t>ServerDirectoryCleanup</t>
-  </si>
-  <si>
     <t>../analysis</t>
   </si>
   <si>
@@ -2349,12 +2202,6 @@
     <t>Short display names are used for plots and exported to metadata</t>
   </si>
   <si>
-    <t>NG EUI</t>
-  </si>
-  <si>
-    <t>Elec EUI</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -2463,9 +2310,6 @@
     <t>SEB4 baseboard SPEA2 2013</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced</t>
-  </si>
-  <si>
     <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
   </si>
   <si>
@@ -2509,6 +2353,9 @@
   </si>
   <si>
     <t>1.21.14</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20</t>
   </si>
 </sst>
 </file>
@@ -4538,7 +4385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4600,7 +4447,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -6805,7 +6651,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6841,7 +6687,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>765</v>
+        <v>716</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6852,7 +6698,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6863,7 +6709,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>822</v>
+        <v>770</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6874,7 +6720,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>771</v>
+        <v>720</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6887,11 +6733,11 @@
       <c r="B7" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D7" s="32" t="str">
+      <c r="D7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6906,11 +6752,11 @@
       <c r="B8" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="32" t="str">
+      <c r="D8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6926,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="2" t="s">
         <v>602</v>
       </c>
@@ -6945,7 +6791,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>806</v>
+        <v>755</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6956,10 +6802,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>772</v>
+        <v>721</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6967,10 +6813,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>738</v>
+        <v>689</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7013,7 +6859,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>803</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7042,24 +6888,24 @@
         <v>4</v>
       </c>
       <c r="B22" s="29">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>560</v>
       </c>
       <c r="B23" s="29">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
@@ -7071,11 +6917,11 @@
       <c r="C24" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>804</v>
+        <v>753</v>
       </c>
       <c r="B25" s="29">
         <v>60</v>
@@ -7083,11 +6929,11 @@
       <c r="C25" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>805</v>
+        <v>754</v>
       </c>
       <c r="B26" s="29">
         <v>60</v>
@@ -7095,7 +6941,7 @@
       <c r="C26" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
@@ -7107,7 +6953,7 @@
       <c r="C27" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
@@ -7117,7 +6963,7 @@
         <v>536</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -7129,31 +6975,31 @@
       <c r="C29" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>739</v>
+        <v>690</v>
       </c>
       <c r="B30" s="29">
         <v>0</v>
       </c>
-      <c r="C30" s="33" t="s">
-        <v>740</v>
-      </c>
-      <c r="D30" s="34"/>
+      <c r="C30" s="32" t="s">
+        <v>691</v>
+      </c>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="34"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="34"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
@@ -7163,7 +7009,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>30</v>
@@ -7176,7 +7022,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>773</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7190,7 +7036,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>447</v>
@@ -7201,10 +7047,10 @@
         <v>31</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>774</v>
+        <v>723</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -7216,7 +7062,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="13" t="s">
@@ -7225,13 +7071,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>775</v>
+        <v>724</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7261,9 +7107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R81" sqref="R81"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7299,7 +7145,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="59"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7311,21 +7157,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7340,7 +7186,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="59"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7360,8 +7206,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>766</v>
+      <c r="F3" s="60" t="s">
+        <v>717</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7421,41 +7267,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="b">
+    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>799</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>777</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>777</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>778</v>
+        <v>727</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="F5" s="62"/>
+        <v>728</v>
+      </c>
+      <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>780</v>
+        <v>729</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7464,17 +7310,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>782</v>
+        <v>731</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7483,17 +7329,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>783</v>
+        <v>732</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="F7" s="62"/>
+        <v>733</v>
+      </c>
+      <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>785</v>
+        <v>734</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7502,17 +7348,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="F8" s="62"/>
+        <v>736</v>
+      </c>
+      <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="J8" s="30"/>
     </row>
@@ -7521,17 +7367,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>788</v>
+        <v>737</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F9" s="62"/>
+        <v>738</v>
+      </c>
+      <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>790</v>
+        <v>739</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7540,17 +7386,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F10" s="62"/>
+        <v>673</v>
+      </c>
+      <c r="F10" s="61"/>
       <c r="G10" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>749</v>
+        <v>671</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>700</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7559,17 +7405,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F11" s="62"/>
+        <v>675</v>
+      </c>
+      <c r="F11" s="61"/>
       <c r="G11" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>750</v>
+        <v>671</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>701</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7578,17 +7424,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>791</v>
+        <v>740</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="F12" s="62"/>
+        <v>741</v>
+      </c>
+      <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>793</v>
+      <c r="I12" s="46" t="s">
+        <v>742</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7597,55 +7443,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>801</v>
+        <v>750</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="F13" s="62"/>
+        <v>751</v>
+      </c>
+      <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>793</v>
+      <c r="I13" s="46" t="s">
+        <v>742</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="b">
+    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>800</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>777</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>777</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="35" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>778</v>
+        <v>727</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="F15" s="62"/>
+        <v>728</v>
+      </c>
+      <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>794</v>
+        <v>743</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7654,17 +7500,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>795</v>
+        <v>744</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7673,17 +7519,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>783</v>
+        <v>732</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="F17" s="62"/>
+        <v>733</v>
+      </c>
+      <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>796</v>
+        <v>745</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7692,17 +7538,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="F18" s="62"/>
+        <v>736</v>
+      </c>
+      <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="J18" s="30"/>
     </row>
@@ -7711,17 +7557,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>788</v>
+        <v>737</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F19" s="62"/>
+        <v>738</v>
+      </c>
+      <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>797</v>
+        <v>746</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7730,17 +7576,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F20" s="62"/>
+        <v>673</v>
+      </c>
+      <c r="F20" s="61"/>
       <c r="G20" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>749</v>
+        <v>671</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>700</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7749,17 +7595,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F21" s="62"/>
+        <v>675</v>
+      </c>
+      <c r="F21" s="61"/>
       <c r="G21" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>750</v>
+        <v>671</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>701</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7768,53 +7614,53 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>791</v>
+        <v>740</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="F22" s="62"/>
+        <v>741</v>
+      </c>
+      <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="47" t="s">
-        <v>798</v>
+      <c r="I22" s="46" t="s">
+        <v>747</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="b">
+    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>820</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>807</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>807</v>
-      </c>
-      <c r="E23" s="36" t="s">
+      <c r="B23" s="35" t="s">
+        <v>768</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="b">
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7828,7 +7674,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7840,41 +7686,41 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="39">
-        <v>0</v>
-      </c>
-      <c r="K26" s="41">
-        <v>0</v>
-      </c>
-      <c r="L26" s="41">
+      <c r="I26" s="38">
+        <v>0</v>
+      </c>
+      <c r="K26" s="40">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
         <v>100</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="40">
         <v>15</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="40">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="40">
         <v>1</v>
       </c>
-      <c r="R26" s="39" t="s">
-        <v>821</v>
+      <c r="R26" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7882,12 +7728,12 @@
         <v>21</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="F27" s="62"/>
+        <v>657</v>
+      </c>
+      <c r="F27" s="61"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7895,41 +7741,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>668</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="55" t="s">
+    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="55">
-        <v>0</v>
-      </c>
-      <c r="K28" s="57">
-        <v>0</v>
-      </c>
-      <c r="L28" s="57">
+      <c r="I28" s="54">
+        <v>0</v>
+      </c>
+      <c r="K28" s="56">
+        <v>0</v>
+      </c>
+      <c r="L28" s="56">
         <v>0.1</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="56">
         <v>0.05</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="56">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="56">
         <v>0.01</v>
       </c>
-      <c r="R28" s="39" t="s">
-        <v>821</v>
+      <c r="R28" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7937,12 +7783,12 @@
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="F29" s="62"/>
+        <v>660</v>
+      </c>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7955,12 +7801,12 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="F30" s="63"/>
+        <v>662</v>
+      </c>
+      <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -7978,7 +7824,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -7996,7 +7842,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -8014,7 +7860,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -8023,20 +7869,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="b">
+    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8052,7 +7898,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -8068,45 +7914,45 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>649</v>
-      </c>
-      <c r="E36" s="51" t="s">
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E36" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="51" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="51">
-        <v>0</v>
-      </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53">
+      <c r="I36" s="50">
+        <v>0</v>
+      </c>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52">
         <v>-40</v>
       </c>
-      <c r="L36" s="53">
+      <c r="L36" s="52">
         <v>40</v>
       </c>
-      <c r="M36" s="53">
-        <v>0</v>
-      </c>
-      <c r="N36" s="53">
+      <c r="M36" s="52">
+        <v>0</v>
+      </c>
+      <c r="N36" s="52">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="52">
         <v>1</v>
       </c>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="39" t="s">
-        <v>821</v>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8115,13 +7961,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8134,7 +7980,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="38"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8148,7 +7994,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8161,7 +8007,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="38"/>
+      <c r="Q38" s="37"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8175,7 +8021,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8188,7 +8034,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="38"/>
+      <c r="Q39" s="37"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8202,7 +8048,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -8215,7 +8061,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="38"/>
+      <c r="Q40" s="37"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8229,7 +8075,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8242,7 +8088,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="38"/>
+      <c r="Q41" s="37"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8256,7 +8102,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8269,7 +8115,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="38"/>
+      <c r="Q42" s="37"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8283,7 +8129,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8296,22 +8142,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="b">
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8325,7 +8171,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8336,45 +8182,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="39" t="s">
+    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="E46" s="39" t="s">
+      <c r="D46" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="39" t="s">
+      <c r="F46" s="48"/>
+      <c r="G46" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I46" s="39">
-        <v>0</v>
-      </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="41">
+      <c r="H46" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="40">
         <v>-80</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="40">
         <v>80</v>
       </c>
-      <c r="M46" s="41">
-        <v>0</v>
-      </c>
-      <c r="N46" s="41">
+      <c r="M46" s="40">
+        <v>0</v>
+      </c>
+      <c r="N46" s="40">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="40">
         <v>1</v>
       </c>
-      <c r="R46" s="39" t="s">
-        <v>821</v>
+      <c r="R46" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8382,17 +8228,17 @@
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I47" s="29">
         <v>0</v>
@@ -8403,17 +8249,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="62"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8424,17 +8270,17 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="62"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I49" s="29">
         <v>0</v>
@@ -8445,12 +8291,12 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="62"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8463,17 +8309,17 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="62"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I51" s="29">
         <v>15</v>
@@ -8484,17 +8330,17 @@
         <v>21</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="62"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I52" s="29">
         <v>0</v>
@@ -8505,36 +8351,36 @@
         <v>21</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="b">
+    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>745</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>746</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>746</v>
-      </c>
-      <c r="E54" s="45" t="s">
+      <c r="B54" s="44" t="s">
+        <v>696</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>697</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>697</v>
+      </c>
+      <c r="E54" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8548,56 +8394,56 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="63"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="39" t="s">
+    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="39" t="s">
-        <v>747</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>748</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="39" t="s">
+      <c r="D56" s="38" t="s">
+        <v>698</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I56" s="39">
+      <c r="H56" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I56" s="38">
         <v>0.8</v>
       </c>
-      <c r="J56" s="42"/>
-      <c r="K56" s="41">
+      <c r="J56" s="41"/>
+      <c r="K56" s="40">
         <v>0.78</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="40">
         <v>0.98</v>
       </c>
-      <c r="M56" s="41">
+      <c r="M56" s="40">
         <v>0.8</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="40">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="40">
         <v>1</v>
       </c>
-      <c r="R56" s="39" t="s">
-        <v>821</v>
+      <c r="R56" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8623,7 +8469,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>126</v>
@@ -8633,7 +8479,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I58" s="29">
         <v>0</v>
@@ -8644,7 +8490,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>48</v>
@@ -8654,7 +8500,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
@@ -8665,7 +8511,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>50</v>
@@ -8675,7 +8521,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I60" s="29">
         <v>0</v>
@@ -8686,12 +8532,12 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="63"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8704,17 +8550,17 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="63"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I62" s="29">
         <v>15</v>
@@ -8725,17 +8571,17 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="63"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I63" s="29">
         <v>0</v>
@@ -8746,36 +8592,36 @@
         <v>21</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="63"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="b">
+    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="45" t="s">
-        <v>752</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>751</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>751</v>
-      </c>
-      <c r="E65" s="45" t="s">
+      <c r="B65" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8784,61 +8630,61 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>753</v>
+        <v>704</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="63"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="39" t="s">
+    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="39" t="s">
+      <c r="D67" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I67" s="39">
+      <c r="H67" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I67" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="41">
-        <v>2</v>
-      </c>
-      <c r="L67" s="41">
+      <c r="J67" s="41"/>
+      <c r="K67" s="40">
+        <v>2</v>
+      </c>
+      <c r="L67" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="41">
+      <c r="M67" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="40">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="41">
+      <c r="O67" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="39" t="s">
-        <v>821</v>
+      <c r="R67" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8851,7 +8697,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="63"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8864,17 +8710,17 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="63"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I69" s="29">
         <v>0</v>
@@ -8885,17 +8731,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="63"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8906,17 +8752,17 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="63"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I71" s="29">
         <v>0</v>
@@ -8927,12 +8773,12 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="63"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -8945,17 +8791,17 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="63"/>
+      <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I73" s="29">
         <v>15</v>
@@ -8966,17 +8812,17 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="63"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I74" s="29">
         <v>0</v>
@@ -8987,36 +8833,36 @@
         <v>21</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="63"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="b">
+    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="45" t="s">
+      <c r="E76" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9030,97 +8876,97 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="63"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="50" t="s">
+      <c r="I77" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="39" t="s">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="39" t="s">
-        <v>756</v>
-      </c>
-      <c r="E78" s="39" t="s">
+      <c r="D78" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="39" t="s">
+      <c r="F78" s="48"/>
+      <c r="G78" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I78" s="39">
-        <v>0</v>
-      </c>
-      <c r="J78" s="42"/>
-      <c r="K78" s="41">
+      <c r="H78" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I78" s="38">
+        <v>0</v>
+      </c>
+      <c r="J78" s="41"/>
+      <c r="K78" s="40">
         <v>-20</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L78" s="40">
         <v>14</v>
       </c>
-      <c r="M78" s="41">
-        <v>0</v>
-      </c>
-      <c r="N78" s="41">
+      <c r="M78" s="40">
+        <v>0</v>
+      </c>
+      <c r="N78" s="40">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="41">
+      <c r="O78" s="40">
         <v>1</v>
       </c>
-      <c r="R78" s="39" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="39" t="s">
+      <c r="R78" s="38" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="39" t="s">
-        <v>757</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>758</v>
-      </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="39" t="s">
+      <c r="D79" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="F79" s="48"/>
+      <c r="G79" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I79" s="39">
-        <v>0</v>
-      </c>
-      <c r="J79" s="42"/>
-      <c r="K79" s="41">
+      <c r="H79" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I79" s="38">
+        <v>0</v>
+      </c>
+      <c r="J79" s="41"/>
+      <c r="K79" s="40">
         <v>-25</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L79" s="40">
         <v>30</v>
       </c>
-      <c r="M79" s="41">
-        <v>0</v>
-      </c>
-      <c r="N79" s="41">
+      <c r="M79" s="40">
+        <v>0</v>
+      </c>
+      <c r="N79" s="40">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="41">
+      <c r="O79" s="40">
         <v>1</v>
       </c>
-      <c r="R79" s="39" t="s">
-        <v>821</v>
+      <c r="R79" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9133,7 +8979,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="63"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -9146,17 +8992,17 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="63"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I81" s="29">
         <v>0</v>
@@ -9167,17 +9013,17 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="63"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
@@ -9188,17 +9034,17 @@
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="63"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I83" s="29">
         <v>0</v>
@@ -9209,12 +9055,12 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="62"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9227,17 +9073,17 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="62"/>
+      <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I85" s="29">
         <v>15</v>
@@ -9248,17 +9094,17 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="62"/>
+      <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I86" s="29">
         <v>0</v>
@@ -9269,119 +9115,119 @@
         <v>21</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="62"/>
+      <c r="F87" s="61"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I87" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45" t="b">
+    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="E88" s="45" t="s">
+      <c r="C88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E88" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="39" t="s">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E89" s="39" t="s">
+      <c r="D89" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E89" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="39" t="s">
+      <c r="F89" s="48"/>
+      <c r="G89" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I89" s="39">
-        <v>0</v>
-      </c>
-      <c r="J89" s="42"/>
-      <c r="K89" s="41">
+      <c r="H89" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I89" s="38">
+        <v>0</v>
+      </c>
+      <c r="J89" s="41"/>
+      <c r="K89" s="40">
         <v>-6</v>
       </c>
-      <c r="L89" s="41">
-        <v>2</v>
-      </c>
-      <c r="M89" s="41">
-        <v>0</v>
-      </c>
-      <c r="N89" s="41">
+      <c r="L89" s="40">
+        <v>2</v>
+      </c>
+      <c r="M89" s="40">
+        <v>0</v>
+      </c>
+      <c r="N89" s="40">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="41">
+      <c r="O89" s="40">
         <v>1</v>
       </c>
-      <c r="R89" s="39" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="39" t="s">
+      <c r="R89" s="38" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="E90" s="39" t="s">
+      <c r="D90" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="E90" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="39" t="s">
+      <c r="F90" s="48"/>
+      <c r="G90" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I90" s="39">
-        <v>0</v>
-      </c>
-      <c r="J90" s="42"/>
-      <c r="K90" s="41">
+      <c r="H90" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I90" s="38">
+        <v>0</v>
+      </c>
+      <c r="J90" s="41"/>
+      <c r="K90" s="40">
         <v>-6</v>
       </c>
-      <c r="L90" s="41">
+      <c r="L90" s="40">
         <v>3.9</v>
       </c>
-      <c r="M90" s="41">
-        <v>0</v>
-      </c>
-      <c r="N90" s="41">
+      <c r="M90" s="40">
+        <v>0</v>
+      </c>
+      <c r="N90" s="40">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="41">
+      <c r="O90" s="40">
         <v>1</v>
       </c>
-      <c r="R90" s="39" t="s">
-        <v>821</v>
+      <c r="R90" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9389,12 +9235,12 @@
         <v>21</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="62"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9408,491 +9254,481 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="48" t="b">
+      <c r="A92" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>729</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="E92" s="45" t="s">
+      <c r="B92" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E92" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="45"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="38"/>
+      <c r="B93" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49" t="s">
-        <v>723</v>
-      </c>
-      <c r="E93" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49" t="s">
+      <c r="C93" s="48"/>
+      <c r="D93" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49">
+      <c r="H93" s="48"/>
+      <c r="I93" s="48">
         <v>1</v>
       </c>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49">
+      <c r="J93" s="48"/>
+      <c r="K93" s="48">
         <v>0.5</v>
       </c>
-      <c r="L93" s="49">
+      <c r="L93" s="48">
         <v>4.5</v>
       </c>
-      <c r="M93" s="41">
+      <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="39">
+      <c r="N93" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="49">
+      <c r="O93" s="48">
         <v>0.1</v>
       </c>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39" t="s">
-        <v>821</v>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="49"/>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="48"/>
+      <c r="B94" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49" t="s">
-        <v>725</v>
-      </c>
-      <c r="E94" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49" t="s">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49">
+      <c r="H94" s="48"/>
+      <c r="I94" s="48">
         <v>1</v>
       </c>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49">
+      <c r="J94" s="48"/>
+      <c r="K94" s="48">
         <v>0.1</v>
       </c>
-      <c r="L94" s="49">
+      <c r="L94" s="48">
         <v>4.5</v>
       </c>
-      <c r="M94" s="41">
+      <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="49">
+      <c r="N94" s="48">
         <v>0.25</v>
       </c>
-      <c r="O94" s="49">
+      <c r="O94" s="48">
         <v>0.1</v>
       </c>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39" t="s">
-        <v>821</v>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="48"/>
+      <c r="B95" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49" t="s">
-        <v>727</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49" t="s">
+      <c r="C95" s="48"/>
+      <c r="D95" s="48" t="s">
+        <v>680</v>
+      </c>
+      <c r="E95" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49">
+      <c r="H95" s="48"/>
+      <c r="I95" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49">
+      <c r="J95" s="48"/>
+      <c r="K95" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="49">
+      <c r="L95" s="48">
         <v>3</v>
       </c>
-      <c r="M95" s="41">
+      <c r="M95" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="41">
+      <c r="N95" s="40">
         <v>0.25</v>
       </c>
-      <c r="O95" s="41">
+      <c r="O95" s="40">
         <v>0.1</v>
       </c>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="39" t="s">
-        <v>821</v>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="38" t="s">
+        <v>769</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="48" t="b">
+      <c r="A96" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="E96" s="45" t="s">
+      <c r="B96" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E96" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="45"/>
-      <c r="R96" s="45"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E97" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49" t="s">
+      <c r="C97" s="48"/>
+      <c r="D97" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49">
+      <c r="H97" s="48"/>
+      <c r="I97" s="48">
         <v>1</v>
       </c>
-      <c r="J97" s="49"/>
-      <c r="K97" s="49">
+      <c r="J97" s="48"/>
+      <c r="K97" s="48">
         <v>0.5</v>
       </c>
-      <c r="L97" s="49">
+      <c r="L97" s="48">
         <v>4</v>
       </c>
-      <c r="M97" s="41">
+      <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="39">
+      <c r="N97" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="49">
+      <c r="O97" s="48">
         <v>0.1</v>
       </c>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39" t="s">
-        <v>821</v>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49" t="s">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49" t="s">
+      <c r="C98" s="48"/>
+      <c r="D98" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49">
+      <c r="H98" s="48"/>
+      <c r="I98" s="48">
         <v>1</v>
       </c>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49">
+      <c r="J98" s="48"/>
+      <c r="K98" s="48">
         <v>0.5</v>
       </c>
-      <c r="L98" s="49">
+      <c r="L98" s="48">
         <v>4</v>
       </c>
-      <c r="M98" s="41">
+      <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="49">
+      <c r="N98" s="48">
         <v>0.25</v>
       </c>
-      <c r="O98" s="49">
+      <c r="O98" s="48">
         <v>0.1</v>
       </c>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39" t="s">
-        <v>821</v>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49" t="s">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E99" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49" t="s">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49">
+      <c r="H99" s="48"/>
+      <c r="I99" s="48">
         <v>1</v>
       </c>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49">
+      <c r="J99" s="48"/>
+      <c r="K99" s="48">
         <v>0.5</v>
       </c>
-      <c r="L99" s="49">
+      <c r="L99" s="48">
         <v>3</v>
       </c>
-      <c r="M99" s="41">
+      <c r="M99" s="40">
         <v>1.75</v>
       </c>
-      <c r="N99" s="41">
+      <c r="N99" s="40">
         <v>0.25</v>
       </c>
-      <c r="O99" s="41">
+      <c r="O99" s="40">
         <v>0.1</v>
       </c>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="39" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45" t="b">
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="38" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="45" t="s">
-        <v>760</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>759</v>
-      </c>
-      <c r="D100" s="45" t="s">
-        <v>759</v>
-      </c>
-      <c r="E100" s="45" t="s">
+      <c r="B100" s="44" t="s">
+        <v>711</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>710</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>710</v>
+      </c>
+      <c r="E100" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="55" t="s">
-        <v>763</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>761</v>
-      </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="55" t="s">
+    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>714</v>
+      </c>
+      <c r="E101" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="F101" s="61"/>
+      <c r="G101" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="I101" s="55">
+      <c r="H101" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I101" s="54">
         <v>1</v>
       </c>
-      <c r="J101" s="58"/>
-      <c r="K101" s="57">
+      <c r="J101" s="57"/>
+      <c r="K101" s="56">
         <v>0.9</v>
       </c>
-      <c r="L101" s="57">
+      <c r="L101" s="56">
         <v>1</v>
       </c>
-      <c r="M101" s="57">
+      <c r="M101" s="56">
         <v>0.95</v>
       </c>
-      <c r="N101" s="57">
+      <c r="N101" s="56">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="57">
+      <c r="O101" s="56">
         <v>0.1</v>
       </c>
-      <c r="R101" s="39" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="39" t="s">
+      <c r="R101" s="38" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="39" t="s">
-        <v>764</v>
-      </c>
-      <c r="E102" s="39" t="s">
-        <v>762</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="39" t="s">
+      <c r="D102" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="F102" s="48"/>
+      <c r="G102" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I102" s="39">
+      <c r="H102" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I102" s="38">
         <v>1450</v>
       </c>
-      <c r="J102" s="42"/>
-      <c r="K102" s="41">
-        <v>0</v>
-      </c>
-      <c r="L102" s="41">
+      <c r="J102" s="41"/>
+      <c r="K102" s="40">
+        <v>0</v>
+      </c>
+      <c r="L102" s="40">
         <v>3000</v>
       </c>
-      <c r="M102" s="41">
+      <c r="M102" s="40">
         <v>1450</v>
       </c>
-      <c r="N102" s="41">
+      <c r="N102" s="40">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="41">
+      <c r="O102" s="40">
         <v>50</v>
       </c>
-      <c r="R102" s="39" t="s">
-        <v>821</v>
+      <c r="R102" s="38" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>736</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="E103" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="62"/>
+      <c r="F104" s="61"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="46"/>
+      <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="46"/>
+      <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="46"/>
+      <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="46"/>
+      <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="46"/>
+      <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="46"/>
+      <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="46"/>
+      <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="46"/>
+      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10265,11 +10101,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10289,7 +10125,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="59"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10307,11 +10143,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>767</v>
+      <c r="B2" s="63" t="s">
+        <v>718</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10345,11 +10181,11 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>768</v>
+      <c r="B3" s="63" t="s">
+        <v>719</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>622</v>
@@ -10377,18 +10213,18 @@
         <v>621</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>464</v>
@@ -10411,16 +10247,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>629</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>626</v>
+        <v>756</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>464</v>
+        <v>634</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>62</v>
@@ -10441,19 +10276,15 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>757</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>636</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>769</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>631</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>464</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>62</v>
@@ -10467,27 +10298,24 @@
       <c r="I6" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>770</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>630</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>624</v>
+        <v>758</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="29" t="b">
@@ -10499,23 +10327,23 @@
       <c r="I7" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="31"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="B8" s="46"/>
+        <v>666</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>675</v>
+        <v>759</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="29" t="b">
@@ -10527,63 +10355,61 @@
       <c r="I8" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="B9" s="46"/>
+        <v>667</v>
+      </c>
+      <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F9" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29"/>
+        <v>1</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>678</v>
-      </c>
-      <c r="B10" s="46"/>
+        <v>668</v>
+      </c>
+      <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F10" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -10591,27 +10417,27 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="B11" s="46"/>
+        <v>669</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>681</v>
+        <v>762</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F11" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -10619,27 +10445,27 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="B12" s="46"/>
+        <v>670</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F12" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -10647,21 +10473,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="46"/>
+        <v>692</v>
+      </c>
+      <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="29" t="b">
         <v>1</v>
@@ -10669,27 +10493,22 @@
       <c r="I13" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="B14" s="46"/>
+        <v>693</v>
+      </c>
+      <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F14" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="29" t="b">
         <v>1</v>
@@ -10697,28 +10516,22 @@
       <c r="I14" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="B15" s="46"/>
+        <v>694</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="29" t="b">
         <v>1</v>
@@ -10726,28 +10539,20 @@
       <c r="I15" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="29"/>
+        <v>695</v>
+      </c>
+      <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="29" t="b">
         <v>1</v>
@@ -10755,619 +10560,101 @@
       <c r="I16" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>709</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>711</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
-        <v>808</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>643</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
-        <v>809</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>712</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29" t="s">
-        <v>810</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>713</v>
-      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>714</v>
-      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
-        <v>812</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>715</v>
-      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
-        <v>813</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>716</v>
-      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
-        <v>814</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>717</v>
-      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
-        <v>815</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>741</v>
-      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>742</v>
-      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>743</v>
-      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>744</v>
-      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
-      <c r="D37" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
@@ -11444,69 +10731,6 @@
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="29"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="29"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20125,7 +19349,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>553</v>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2310,42 +2310,6 @@
     <t>SEB4 baseboard SPEA2 2013</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
@@ -2356,6 +2320,42 @@
   </si>
   <si>
     <t>CalibrationReportsEnhanced20</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6650,7 +6650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -6709,7 +6709,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -7633,13 +7633,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>231</v>
@@ -7720,7 +7720,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7775,7 +7775,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="Q36" s="53"/>
       <c r="R36" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8220,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8443,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8684,7 +8684,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8966,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9186,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9227,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9323,7 +9323,7 @@
       <c r="P93" s="38"/>
       <c r="Q93" s="38"/>
       <c r="R93" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9365,7 +9365,7 @@
       <c r="P94" s="38"/>
       <c r="Q94" s="38"/>
       <c r="R94" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9407,7 +9407,7 @@
       <c r="P95" s="40"/>
       <c r="Q95" s="40"/>
       <c r="R95" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9481,7 +9481,7 @@
       <c r="P97" s="38"/>
       <c r="Q97" s="38"/>
       <c r="R97" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9523,7 +9523,7 @@
       <c r="P98" s="38"/>
       <c r="Q98" s="38"/>
       <c r="R98" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9565,7 +9565,7 @@
       <c r="P99" s="40"/>
       <c r="Q99" s="40"/>
       <c r="R99" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9623,7 +9623,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9664,7 +9664,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="38" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -10103,9 +10103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD25"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10252,7 +10252,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10281,7 +10281,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10310,7 +10310,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10338,7 +10338,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10366,7 +10366,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10394,7 +10394,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10422,7 +10422,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10450,7 +10450,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10478,7 +10478,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10501,7 +10501,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10524,7 +10524,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="777">
   <si>
     <t>type</t>
   </si>
@@ -2356,6 +2356,21 @@
   </si>
   <si>
     <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
+  </si>
+  <si>
+    <t>TournamentSize</t>
+  </si>
+  <si>
+    <t>Tournament Size</t>
   </si>
 </sst>
 </file>
@@ -4385,7 +4400,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4509,6 +4524,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1839">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6648,10 +6664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6909,180 +6925,202 @@
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>561</v>
+        <v>775</v>
       </c>
       <c r="B24" s="29">
-        <v>0.85</v>
+        <v>2</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>580</v>
+        <v>776</v>
       </c>
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>753</v>
+        <v>561</v>
       </c>
       <c r="B25" s="29">
-        <v>60</v>
+        <v>0.85</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B26" s="29">
         <v>60</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>564</v>
+        <v>754</v>
       </c>
       <c r="B27" s="29">
-        <v>0.8</v>
+        <v>60</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="C28" s="29"/>
+        <v>564</v>
+      </c>
+      <c r="B28" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>581</v>
+      </c>
       <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="B29" s="30">
-        <v>2</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>569</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="C29" s="29"/>
       <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B30" s="30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="B30" s="29">
-        <v>0</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="B31" s="29">
+        <v>0</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>691</v>
       </c>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="B32" s="28">
+        <v>1E+20</v>
+      </c>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A33" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="B33" s="29">
+        <v>0</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>774</v>
+      </c>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B35" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B36" s="24" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B38" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
+    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C39" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D39" s="30" t="s">
         <v>723</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B41" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="13" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B42" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C42" s="30" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="D42" s="2"/>
+    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="25"/>
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -10103,7 +10141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -4521,10 +4521,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1839">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6667,7 +6667,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7022,7 +7022,7 @@
         <v>772</v>
       </c>
       <c r="B32" s="28">
-        <v>1E+20</v>
+        <v>1E+18</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>
@@ -7034,7 +7034,7 @@
       <c r="B33" s="29">
         <v>0</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="64" t="s">
         <v>774</v>
       </c>
       <c r="D33" s="33"/>
@@ -7202,14 +7202,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -6667,7 +6667,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6952,7 +6952,7 @@
         <v>753</v>
       </c>
       <c r="B26" s="29">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>582</v>
@@ -6964,7 +6964,7 @@
         <v>754</v>
       </c>
       <c r="B27" s="29">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>583</v>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="779">
   <si>
     <t>type</t>
   </si>
@@ -2115,9 +2115,6 @@
     <t>exit_on_guideline14</t>
   </si>
   <si>
-    <t>1 is true</t>
-  </si>
-  <si>
     <t>Electric CVRMSE within limit</t>
   </si>
   <si>
@@ -2364,13 +2361,22 @@
     <t>Debug Messages</t>
   </si>
   <si>
-    <t xml:space="preserve">1 or 0 </t>
-  </si>
-  <si>
     <t>TournamentSize</t>
   </si>
   <si>
     <t>Tournament Size</t>
+  </si>
+  <si>
+    <t>"minkowski", "maximum", "euclidean", "binary", "manhattan"</t>
+  </si>
+  <si>
+    <t>1 or 0 (True or False)</t>
+  </si>
+  <si>
+    <t>Return Value for F(x) if F fails</t>
+  </si>
+  <si>
+    <t>Lp norm power (must be non-negative)</t>
   </si>
 </sst>
 </file>
@@ -2455,6 +2461,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4400,7 +4407,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4465,9 +4472,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -4521,7 +4525,6 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6667,7 +6670,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6703,7 +6706,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6714,7 +6717,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6725,7 +6728,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6736,7 +6739,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6807,7 +6810,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6818,7 +6821,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>638</v>
@@ -6875,7 +6878,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6909,7 +6912,7 @@
       <c r="C22" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
@@ -6921,19 +6924,19 @@
       <c r="C23" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B24" s="29">
         <v>2</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>776</v>
-      </c>
-      <c r="D24" s="33"/>
+        <v>774</v>
+      </c>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
@@ -6945,11 +6948,11 @@
       <c r="C25" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B26" s="29">
         <v>5</v>
@@ -6957,11 +6960,11 @@
       <c r="C26" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="D26" s="33"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B27" s="29">
         <v>5</v>
@@ -6969,7 +6972,7 @@
       <c r="C27" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
@@ -6981,7 +6984,7 @@
       <c r="C28" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="D28" s="33"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -6990,8 +6993,10 @@
       <c r="B29" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="33"/>
+      <c r="C29" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
@@ -7001,9 +7006,9 @@
         <v>2</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="D30" s="33"/>
+        <v>778</v>
+      </c>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
@@ -7012,32 +7017,34 @@
       <c r="B31" s="29">
         <v>0</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="D31" s="33"/>
+      <c r="C31" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B32" s="28">
         <v>1E+18</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B33" s="29">
         <v>0</v>
       </c>
-      <c r="C33" s="64" t="s">
-        <v>774</v>
-      </c>
-      <c r="D33" s="33"/>
+      <c r="C33" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
@@ -7060,7 +7067,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7088,7 +7095,7 @@
         <v>629</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -7115,7 +7122,7 @@
         <v>631</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7183,7 +7190,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="58"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7195,21 +7202,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7224,7 +7231,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7244,8 +7251,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="60" t="s">
-        <v>717</v>
+      <c r="F3" s="59" t="s">
+        <v>716</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7305,41 +7312,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="b">
+    <row r="4" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>748</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>726</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>726</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="B4" s="34" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7348,17 +7355,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7367,17 +7374,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>733</v>
-      </c>
-      <c r="F7" s="61"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7386,12 +7393,12 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="30" t="s">
         <v>671</v>
       </c>
@@ -7405,17 +7412,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>737</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>738</v>
-      </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7429,12 +7436,12 @@
       <c r="E10" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>700</v>
+      <c r="I10" s="45" t="s">
+        <v>699</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7448,12 +7455,12 @@
       <c r="E11" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>701</v>
+      <c r="I11" s="45" t="s">
+        <v>700</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7462,17 +7469,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>741</v>
-      </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="46" t="s">
-        <v>742</v>
+      <c r="I12" s="45" t="s">
+        <v>741</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7481,55 +7488,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>750</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="46" t="s">
-        <v>742</v>
+      <c r="I13" s="45" t="s">
+        <v>741</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="b">
+    <row r="14" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>749</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>726</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>726</v>
-      </c>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="34" t="s">
+        <v>748</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="F15" s="61"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7538,17 +7545,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7557,17 +7564,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>733</v>
-      </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7576,12 +7583,12 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="30" t="s">
         <v>671</v>
       </c>
@@ -7595,17 +7602,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>737</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>738</v>
-      </c>
-      <c r="F19" s="61"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7619,12 +7626,12 @@
       <c r="E20" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I20" s="46" t="s">
-        <v>700</v>
+      <c r="I20" s="45" t="s">
+        <v>699</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7638,12 +7645,12 @@
       <c r="E21" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F21" s="61"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I21" s="46" t="s">
-        <v>701</v>
+      <c r="I21" s="45" t="s">
+        <v>700</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7652,53 +7659,53 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>741</v>
-      </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="46" t="s">
-        <v>747</v>
+      <c r="I22" s="45" t="s">
+        <v>746</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>756</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>759</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>759</v>
-      </c>
-      <c r="E23" s="35" t="s">
+      <c r="B23" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="b">
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="42" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7712,7 +7719,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7724,41 +7731,41 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
+    <row r="26" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>664</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="38" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="K26" s="39">
+        <v>0</v>
+      </c>
+      <c r="L26" s="39">
         <v>100</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="39">
         <v>15</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="39">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="40">
+      <c r="O26" s="39">
         <v>1</v>
       </c>
-      <c r="R26" s="38" t="s">
-        <v>757</v>
+      <c r="R26" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7771,7 +7778,7 @@
       <c r="E27" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7779,41 +7786,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
+    <row r="28" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="54" t="s">
+      <c r="F28" s="60"/>
+      <c r="G28" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
+      <c r="I28" s="53">
+        <v>0</v>
+      </c>
+      <c r="K28" s="55">
+        <v>0</v>
+      </c>
+      <c r="L28" s="55">
         <v>0.1</v>
       </c>
-      <c r="M28" s="56">
+      <c r="M28" s="55">
         <v>0.05</v>
       </c>
-      <c r="N28" s="56">
+      <c r="N28" s="55">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="56">
+      <c r="O28" s="55">
         <v>0.01</v>
       </c>
-      <c r="R28" s="38" t="s">
-        <v>757</v>
+      <c r="R28" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7826,7 +7833,7 @@
       <c r="E29" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7844,7 +7851,7 @@
       <c r="E30" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -7862,7 +7869,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -7880,7 +7887,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="62"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -7898,7 +7905,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -7907,20 +7914,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="b">
+    <row r="34" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7936,7 +7943,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -7952,45 +7959,45 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50" t="s">
+      <c r="Q35" s="36"/>
+    </row>
+    <row r="36" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="62"/>
-      <c r="G36" s="50" t="s">
+      <c r="F36" s="61"/>
+      <c r="G36" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="50">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
+      <c r="I36" s="49">
+        <v>0</v>
+      </c>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51">
         <v>-40</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="51">
         <v>40</v>
       </c>
-      <c r="M36" s="52">
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
+      <c r="M36" s="51">
+        <v>0</v>
+      </c>
+      <c r="N36" s="51">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="52">
+      <c r="O36" s="51">
         <v>1</v>
       </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="38" t="s">
-        <v>757</v>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -7999,13 +8006,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8018,7 +8025,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="37"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8032,7 +8039,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="62"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8045,7 +8052,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="37"/>
+      <c r="Q38" s="36"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8059,7 +8066,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="62"/>
+      <c r="F39" s="61"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8072,7 +8079,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="37"/>
+      <c r="Q39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8086,7 +8093,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -8099,7 +8106,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="37"/>
+      <c r="Q40" s="36"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8113,7 +8120,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="62"/>
+      <c r="F41" s="61"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8126,7 +8133,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="37"/>
+      <c r="Q41" s="36"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8140,7 +8147,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8153,7 +8160,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="37"/>
+      <c r="Q42" s="36"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8167,7 +8174,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="62"/>
+      <c r="F43" s="61"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8180,22 +8187,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="b">
+      <c r="Q43" s="36"/>
+    </row>
+    <row r="44" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8209,7 +8216,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="62"/>
+      <c r="F45" s="61"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8220,45 +8227,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
+    <row r="46" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="38" t="s">
+      <c r="F46" s="47"/>
+      <c r="G46" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40">
+      <c r="I46" s="37">
+        <v>0</v>
+      </c>
+      <c r="J46" s="40"/>
+      <c r="K46" s="39">
         <v>-80</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="39">
         <v>80</v>
       </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
-      <c r="N46" s="40">
+      <c r="M46" s="39">
+        <v>0</v>
+      </c>
+      <c r="N46" s="39">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O46" s="39">
         <v>1</v>
       </c>
-      <c r="R46" s="38" t="s">
-        <v>757</v>
+      <c r="R46" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8271,7 +8278,7 @@
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="62"/>
+      <c r="F47" s="61"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8292,7 +8299,7 @@
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
@@ -8313,7 +8320,7 @@
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
@@ -8334,7 +8341,7 @@
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="61"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8352,7 +8359,7 @@
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="61"/>
+      <c r="F51" s="60"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
@@ -8373,7 +8380,7 @@
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="61"/>
+      <c r="F52" s="60"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
@@ -8394,7 +8401,7 @@
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="62"/>
+      <c r="F53" s="61"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
@@ -8405,20 +8412,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="b">
+    <row r="54" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="C54" s="43" t="s">
         <v>696</v>
       </c>
-      <c r="C54" s="44" t="s">
-        <v>697</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>697</v>
-      </c>
-      <c r="E54" s="44" t="s">
+      <c r="D54" s="43" t="s">
+        <v>696</v>
+      </c>
+      <c r="E54" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8432,56 +8439,56 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="62"/>
+      <c r="F55" s="61"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="49" t="s">
+      <c r="I55" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="38" t="s">
+    <row r="56" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="E56" s="37" t="s">
         <v>698</v>
       </c>
-      <c r="E56" s="38" t="s">
-        <v>699</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="38" t="s">
+      <c r="F56" s="47"/>
+      <c r="G56" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H56" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56" s="37">
         <v>0.8</v>
       </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="40">
+      <c r="J56" s="40"/>
+      <c r="K56" s="39">
         <v>0.78</v>
       </c>
-      <c r="L56" s="40">
+      <c r="L56" s="39">
         <v>0.98</v>
       </c>
-      <c r="M56" s="40">
+      <c r="M56" s="39">
         <v>0.8</v>
       </c>
-      <c r="N56" s="40">
+      <c r="N56" s="39">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="40">
+      <c r="O56" s="39">
         <v>1</v>
       </c>
-      <c r="R56" s="38" t="s">
-        <v>757</v>
+      <c r="R56" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8575,7 +8582,7 @@
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="62"/>
+      <c r="F61" s="61"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8593,7 +8600,7 @@
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="62"/>
+      <c r="F62" s="61"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
@@ -8614,7 +8621,7 @@
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="62"/>
+      <c r="F63" s="61"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
@@ -8635,7 +8642,7 @@
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="62"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
@@ -8646,20 +8653,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="b">
+    <row r="65" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="44" t="s">
-        <v>703</v>
-      </c>
-      <c r="C65" s="44" t="s">
+      <c r="B65" s="43" t="s">
         <v>702</v>
       </c>
-      <c r="D65" s="44" t="s">
-        <v>702</v>
-      </c>
-      <c r="E65" s="44" t="s">
+      <c r="C65" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="E65" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8668,61 +8675,61 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="62"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="49" t="s">
+      <c r="I66" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="38" t="s">
+    <row r="67" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="E67" s="37" t="s">
         <v>705</v>
       </c>
-      <c r="E67" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="38" t="s">
+      <c r="F67" s="47"/>
+      <c r="G67" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="38" t="s">
+      <c r="H67" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I67" s="38">
+      <c r="I67" s="37">
         <v>4</v>
       </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="40">
-        <v>2</v>
-      </c>
-      <c r="L67" s="40">
+      <c r="J67" s="40"/>
+      <c r="K67" s="39">
+        <v>2</v>
+      </c>
+      <c r="L67" s="39">
         <v>5</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="39">
         <v>4</v>
       </c>
-      <c r="N67" s="40">
+      <c r="N67" s="39">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O67" s="39">
         <v>0.25</v>
       </c>
-      <c r="R67" s="38" t="s">
-        <v>757</v>
+      <c r="R67" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8735,7 +8742,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="62"/>
+      <c r="F68" s="61"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8753,7 +8760,7 @@
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="62"/>
+      <c r="F69" s="61"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
@@ -8774,7 +8781,7 @@
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="62"/>
+      <c r="F70" s="61"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
@@ -8795,7 +8802,7 @@
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="62"/>
+      <c r="F71" s="61"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
@@ -8816,7 +8823,7 @@
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="62"/>
+      <c r="F72" s="61"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -8834,7 +8841,7 @@
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="62"/>
+      <c r="F73" s="61"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
@@ -8855,7 +8862,7 @@
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="62"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
@@ -8876,7 +8883,7 @@
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="62"/>
+      <c r="F75" s="61"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
@@ -8887,20 +8894,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="b">
+    <row r="76" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="44" t="s">
+      <c r="E76" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8914,97 +8921,97 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="62"/>
+      <c r="F77" s="61"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="49" t="s">
+      <c r="I77" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="38" t="s">
+    <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="E78" s="38" t="s">
+      <c r="D78" s="37" t="s">
+        <v>706</v>
+      </c>
+      <c r="E78" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="48"/>
-      <c r="G78" s="38" t="s">
+      <c r="F78" s="47"/>
+      <c r="G78" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="38" t="s">
+      <c r="H78" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I78" s="38">
-        <v>0</v>
-      </c>
-      <c r="J78" s="41"/>
-      <c r="K78" s="40">
+      <c r="I78" s="37">
+        <v>0</v>
+      </c>
+      <c r="J78" s="40"/>
+      <c r="K78" s="39">
         <v>-20</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="39">
         <v>14</v>
       </c>
-      <c r="M78" s="40">
-        <v>0</v>
-      </c>
-      <c r="N78" s="40">
+      <c r="M78" s="39">
+        <v>0</v>
+      </c>
+      <c r="N78" s="39">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="40">
+      <c r="O78" s="39">
         <v>1</v>
       </c>
-      <c r="R78" s="38" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="38" t="s">
+      <c r="R78" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="E79" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="E79" s="38" t="s">
-        <v>709</v>
-      </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="38" t="s">
+      <c r="F79" s="47"/>
+      <c r="G79" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="38" t="s">
+      <c r="H79" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I79" s="38">
-        <v>0</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="40">
+      <c r="I79" s="37">
+        <v>0</v>
+      </c>
+      <c r="J79" s="40"/>
+      <c r="K79" s="39">
         <v>-25</v>
       </c>
-      <c r="L79" s="40">
+      <c r="L79" s="39">
         <v>30</v>
       </c>
-      <c r="M79" s="40">
-        <v>0</v>
-      </c>
-      <c r="N79" s="40">
+      <c r="M79" s="39">
+        <v>0</v>
+      </c>
+      <c r="N79" s="39">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="40">
+      <c r="O79" s="39">
         <v>1</v>
       </c>
-      <c r="R79" s="38" t="s">
-        <v>757</v>
+      <c r="R79" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9017,7 +9024,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="62"/>
+      <c r="F80" s="61"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -9035,7 +9042,7 @@
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="62"/>
+      <c r="F81" s="61"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
@@ -9056,7 +9063,7 @@
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="62"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
@@ -9077,7 +9084,7 @@
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="62"/>
+      <c r="F83" s="61"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
@@ -9098,7 +9105,7 @@
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="61"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9116,7 +9123,7 @@
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="61"/>
+      <c r="F85" s="60"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
@@ -9137,7 +9144,7 @@
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="61"/>
+      <c r="F86" s="60"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
@@ -9158,7 +9165,7 @@
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="61"/>
+      <c r="F87" s="60"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
@@ -9169,103 +9176,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="b">
+    <row r="88" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="E88" s="44" t="s">
+      <c r="E88" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="38" t="s">
+    <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="E89" s="38" t="s">
+      <c r="E89" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="38" t="s">
+      <c r="F89" s="47"/>
+      <c r="G89" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="38" t="s">
+      <c r="H89" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="I89" s="38">
-        <v>0</v>
-      </c>
-      <c r="J89" s="41"/>
-      <c r="K89" s="40">
+      <c r="I89" s="37">
+        <v>0</v>
+      </c>
+      <c r="J89" s="40"/>
+      <c r="K89" s="39">
         <v>-6</v>
       </c>
-      <c r="L89" s="40">
-        <v>2</v>
-      </c>
-      <c r="M89" s="40">
-        <v>0</v>
-      </c>
-      <c r="N89" s="40">
+      <c r="L89" s="39">
+        <v>2</v>
+      </c>
+      <c r="M89" s="39">
+        <v>0</v>
+      </c>
+      <c r="N89" s="39">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="40">
+      <c r="O89" s="39">
         <v>1</v>
       </c>
-      <c r="R89" s="38" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="38" t="s">
+      <c r="R89" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="37" t="s">
         <v>654</v>
       </c>
-      <c r="E90" s="38" t="s">
+      <c r="E90" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="38" t="s">
+      <c r="F90" s="47"/>
+      <c r="G90" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="38" t="s">
+      <c r="H90" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="I90" s="38">
-        <v>0</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="40">
+      <c r="I90" s="37">
+        <v>0</v>
+      </c>
+      <c r="J90" s="40"/>
+      <c r="K90" s="39">
         <v>-6</v>
       </c>
-      <c r="L90" s="40">
+      <c r="L90" s="39">
         <v>3.9</v>
       </c>
-      <c r="M90" s="40">
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
+      <c r="M90" s="39">
+        <v>0</v>
+      </c>
+      <c r="N90" s="39">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="40">
+      <c r="O90" s="39">
         <v>1</v>
       </c>
-      <c r="R90" s="38" t="s">
-        <v>757</v>
+      <c r="R90" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9278,7 +9285,7 @@
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="61"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9292,481 +9299,481 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="b">
+      <c r="A92" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="C92" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="D92" s="47" t="s">
+      <c r="D92" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="E92" s="44" t="s">
+      <c r="E92" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
-      <c r="B93" s="48" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48" t="s">
+      <c r="C93" s="47"/>
+      <c r="D93" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48" t="s">
+      <c r="F93" s="47"/>
+      <c r="G93" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48">
+      <c r="H93" s="47"/>
+      <c r="I93" s="47">
         <v>1</v>
       </c>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48">
+      <c r="J93" s="47"/>
+      <c r="K93" s="47">
         <v>0.5</v>
       </c>
-      <c r="L93" s="48">
+      <c r="L93" s="47">
         <v>4.5</v>
       </c>
-      <c r="M93" s="40">
+      <c r="M93" s="39">
         <v>1.75</v>
       </c>
-      <c r="N93" s="38">
+      <c r="N93" s="37">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="48">
+      <c r="O93" s="47">
         <v>0.1</v>
       </c>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38" t="s">
-        <v>757</v>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
-      <c r="B94" s="48" t="s">
+      <c r="A94" s="47"/>
+      <c r="B94" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48" t="s">
+      <c r="C94" s="47"/>
+      <c r="D94" s="47" t="s">
         <v>678</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48" t="s">
+      <c r="F94" s="47"/>
+      <c r="G94" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48">
+      <c r="H94" s="47"/>
+      <c r="I94" s="47">
         <v>1</v>
       </c>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48">
+      <c r="J94" s="47"/>
+      <c r="K94" s="47">
         <v>0.1</v>
       </c>
-      <c r="L94" s="48">
+      <c r="L94" s="47">
         <v>4.5</v>
       </c>
-      <c r="M94" s="40">
+      <c r="M94" s="39">
         <v>1.75</v>
       </c>
-      <c r="N94" s="48">
+      <c r="N94" s="47">
         <v>0.25</v>
       </c>
-      <c r="O94" s="48">
+      <c r="O94" s="47">
         <v>0.1</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38" t="s">
-        <v>757</v>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48" t="s">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
+      <c r="C95" s="47"/>
+      <c r="D95" s="47" t="s">
         <v>680</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="E95" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="F95" s="47"/>
+      <c r="G95" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48">
+      <c r="H95" s="47"/>
+      <c r="I95" s="47">
         <v>1</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48">
+      <c r="J95" s="47"/>
+      <c r="K95" s="47">
         <v>0.5</v>
       </c>
-      <c r="L95" s="48">
+      <c r="L95" s="47">
         <v>3</v>
       </c>
-      <c r="M95" s="40">
+      <c r="M95" s="39">
         <v>1.75</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N95" s="39">
         <v>0.25</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O95" s="39">
         <v>0.1</v>
       </c>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="38" t="s">
-        <v>757</v>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="37" t="s">
+        <v>756</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="b">
+      <c r="A96" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="46" t="s">
         <v>684</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="D96" s="47" t="s">
+      <c r="D96" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
-      <c r="B97" s="48" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48" t="s">
+      <c r="C97" s="47"/>
+      <c r="D97" s="47" t="s">
         <v>686</v>
       </c>
-      <c r="E97" s="48" t="s">
+      <c r="E97" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48" t="s">
+      <c r="F97" s="47"/>
+      <c r="G97" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48">
+      <c r="H97" s="47"/>
+      <c r="I97" s="47">
         <v>1</v>
       </c>
-      <c r="J97" s="48"/>
-      <c r="K97" s="48">
+      <c r="J97" s="47"/>
+      <c r="K97" s="47">
         <v>0.5</v>
       </c>
-      <c r="L97" s="48">
+      <c r="L97" s="47">
         <v>4</v>
       </c>
-      <c r="M97" s="40">
+      <c r="M97" s="39">
         <v>1.75</v>
       </c>
-      <c r="N97" s="38">
+      <c r="N97" s="37">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="48">
+      <c r="O97" s="47">
         <v>0.1</v>
       </c>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
-      <c r="R97" s="38" t="s">
-        <v>757</v>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48" t="s">
+      <c r="A98" s="47"/>
+      <c r="B98" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48" t="s">
+      <c r="C98" s="47"/>
+      <c r="D98" s="47" t="s">
         <v>687</v>
       </c>
-      <c r="E98" s="48" t="s">
+      <c r="E98" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48" t="s">
+      <c r="F98" s="47"/>
+      <c r="G98" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48">
+      <c r="H98" s="47"/>
+      <c r="I98" s="47">
         <v>1</v>
       </c>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48">
+      <c r="J98" s="47"/>
+      <c r="K98" s="47">
         <v>0.5</v>
       </c>
-      <c r="L98" s="48">
+      <c r="L98" s="47">
         <v>4</v>
       </c>
-      <c r="M98" s="40">
+      <c r="M98" s="39">
         <v>1.75</v>
       </c>
-      <c r="N98" s="48">
+      <c r="N98" s="47">
         <v>0.25</v>
       </c>
-      <c r="O98" s="48">
+      <c r="O98" s="47">
         <v>0.1</v>
       </c>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
-      <c r="R98" s="38" t="s">
-        <v>757</v>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="48" t="s">
+      <c r="A99" s="47"/>
+      <c r="B99" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
+      <c r="C99" s="47"/>
+      <c r="D99" s="47" t="s">
         <v>688</v>
       </c>
-      <c r="E99" s="48" t="s">
+      <c r="E99" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48" t="s">
+      <c r="F99" s="47"/>
+      <c r="G99" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48">
+      <c r="H99" s="47"/>
+      <c r="I99" s="47">
         <v>1</v>
       </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48">
+      <c r="J99" s="47"/>
+      <c r="K99" s="47">
         <v>0.5</v>
       </c>
-      <c r="L99" s="48">
+      <c r="L99" s="47">
         <v>3</v>
       </c>
-      <c r="M99" s="40">
+      <c r="M99" s="39">
         <v>1.75</v>
       </c>
-      <c r="N99" s="40">
+      <c r="N99" s="39">
         <v>0.25</v>
       </c>
-      <c r="O99" s="40">
+      <c r="O99" s="39">
         <v>0.1</v>
       </c>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="38" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="b">
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="53" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="53" t="s">
         <v>711</v>
       </c>
-      <c r="C100" s="44" t="s">
-        <v>710</v>
-      </c>
-      <c r="D100" s="44" t="s">
-        <v>710</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>714</v>
-      </c>
-      <c r="E101" s="54" t="s">
-        <v>712</v>
-      </c>
-      <c r="F101" s="61"/>
-      <c r="G101" s="54" t="s">
+      <c r="F101" s="60"/>
+      <c r="G101" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="53" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="54">
+      <c r="I101" s="53">
         <v>1</v>
       </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56">
+      <c r="J101" s="56"/>
+      <c r="K101" s="55">
         <v>0.9</v>
       </c>
-      <c r="L101" s="56">
+      <c r="L101" s="55">
         <v>1</v>
       </c>
-      <c r="M101" s="56">
+      <c r="M101" s="55">
         <v>0.95</v>
       </c>
-      <c r="N101" s="56">
+      <c r="N101" s="55">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="56">
+      <c r="O101" s="55">
         <v>0.1</v>
       </c>
-      <c r="R101" s="38" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="38" t="s">
+      <c r="R101" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="38" t="s">
-        <v>715</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="38" t="s">
+      <c r="D102" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="E102" s="37" t="s">
+        <v>712</v>
+      </c>
+      <c r="F102" s="47"/>
+      <c r="G102" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="38" t="s">
+      <c r="H102" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I102" s="38">
+      <c r="I102" s="37">
         <v>1450</v>
       </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="40">
-        <v>0</v>
-      </c>
-      <c r="L102" s="40">
+      <c r="J102" s="40"/>
+      <c r="K102" s="39">
+        <v>0</v>
+      </c>
+      <c r="L102" s="39">
         <v>3000</v>
       </c>
-      <c r="M102" s="40">
+      <c r="M102" s="39">
         <v>1450</v>
       </c>
-      <c r="N102" s="40">
+      <c r="N102" s="39">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="40">
+      <c r="O102" s="39">
         <v>50</v>
       </c>
-      <c r="R102" s="38" t="s">
-        <v>757</v>
+      <c r="R102" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="34"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="61"/>
+      <c r="F104" s="60"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="45"/>
+      <c r="F105" s="44"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="45"/>
+      <c r="F106" s="44"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="45"/>
+      <c r="F107" s="44"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="45"/>
+      <c r="F108" s="44"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="45"/>
+      <c r="F109" s="44"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="45"/>
+      <c r="F110" s="44"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="45"/>
+      <c r="F111" s="44"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="45"/>
+      <c r="F112" s="44"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10163,7 +10170,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10181,8 +10188,8 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>718</v>
+      <c r="B2" s="62" t="s">
+        <v>717</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>624</v>
@@ -10219,8 +10226,8 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>719</v>
+      <c r="B3" s="62" t="s">
+        <v>718</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>626</v>
@@ -10287,10 +10294,10 @@
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10316,10 +10323,10 @@
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10345,10 +10352,10 @@
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10376,7 +10383,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10404,7 +10411,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10432,7 +10439,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10460,7 +10467,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10488,7 +10495,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10511,12 +10518,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10534,12 +10541,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10557,12 +10564,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10580,11 +10587,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -6670,7 +6670,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7039,7 +7039,7 @@
         <v>772</v>
       </c>
       <c r="B33" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>776</v>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="780">
   <si>
     <t>type</t>
   </si>
@@ -2377,6 +2377,9 @@
   </si>
   <si>
     <t>Lp norm power (must be non-negative)</t>
+  </si>
+  <si>
+    <t>max queued jobs</t>
   </si>
 </sst>
 </file>
@@ -6669,8 +6672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7047,6 +7050,12 @@
       <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="B34" s="30">
+        <v>40</v>
+      </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7150,11 +7159,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7673,167 +7682,166 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="b">
+    <row r="23" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>755</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>758</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>758</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="b">
+      <c r="B23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0</v>
+      </c>
+      <c r="K25" s="39">
+        <v>0</v>
+      </c>
+      <c r="L25" s="39">
+        <v>100</v>
+      </c>
+      <c r="M25" s="39">
+        <v>15</v>
+      </c>
+      <c r="N25" s="39">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="39">
         <v>1</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37" t="s">
+      <c r="R25" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-      <c r="K26" s="39">
-        <v>0</v>
-      </c>
-      <c r="L26" s="39">
-        <v>100</v>
-      </c>
-      <c r="M26" s="39">
-        <v>15</v>
-      </c>
-      <c r="N26" s="39">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="39">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="37" t="s">
+    </row>
+    <row r="27" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="53">
+        <v>0</v>
+      </c>
+      <c r="K27" s="55">
+        <v>0</v>
+      </c>
+      <c r="L27" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="55">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="37" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="29" t="s">
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>658</v>
-      </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="53">
-        <v>0</v>
-      </c>
-      <c r="K28" s="55">
-        <v>0</v>
-      </c>
-      <c r="L28" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="55">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="37" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F29" s="60"/>
+        <v>662</v>
+      </c>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7846,10 +7854,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F30" s="61"/>
       <c r="G30" s="29" t="s">
@@ -7864,10 +7872,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F31" s="61"/>
       <c r="G31" s="29" t="s">
@@ -7882,123 +7890,132 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" s="61"/>
       <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="61"/>
+      <c r="G34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="36"/>
+    </row>
+    <row r="35" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="I35" s="49">
+        <v>0</v>
+      </c>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="51">
+        <v>40</v>
+      </c>
+      <c r="M35" s="51">
+        <v>0</v>
+      </c>
+      <c r="N35" s="51">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="51">
         <v>1</v>
       </c>
-      <c r="P33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="36"/>
-    </row>
-    <row r="36" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>44</v>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="61"/>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="49">
-        <v>0</v>
-      </c>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51">
-        <v>-40</v>
-      </c>
-      <c r="L36" s="51">
-        <v>40</v>
-      </c>
-      <c r="M36" s="51">
-        <v>0</v>
-      </c>
-      <c r="N36" s="51">
-        <f>(L36-K36)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O36" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="37" t="s">
-        <v>756</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -8006,11 +8023,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="41" t="s">
-        <v>45</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" s="61"/>
       <c r="G37" s="29" t="s">
@@ -8034,14 +8051,14 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="61"/>
       <c r="G38" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
@@ -8061,18 +8078,18 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="61"/>
       <c r="G39" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29">
-        <v>0</v>
+      <c r="I39" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8088,18 +8105,18 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="61"/>
       <c r="G40" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="b">
-        <v>1</v>
+      <c r="I40" s="29">
+        <v>15</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8115,18 +8132,18 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="61"/>
       <c r="G41" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8142,18 +8159,18 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="61"/>
       <c r="G42" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8162,123 +8179,117 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="36"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29">
+    <row r="43" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="36"/>
-    </row>
-    <row r="44" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="b">
+      <c r="B43" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="61"/>
+      <c r="G44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="37">
+        <v>0</v>
+      </c>
+      <c r="J45" s="40"/>
+      <c r="K45" s="39">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="39">
+        <v>80</v>
+      </c>
+      <c r="M45" s="39">
+        <v>0</v>
+      </c>
+      <c r="N45" s="39">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="39">
         <v>1</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="37" t="s">
+      <c r="R45" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="37">
-        <v>0</v>
-      </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="39">
-        <v>-80</v>
-      </c>
-      <c r="L46" s="39">
-        <v>80</v>
-      </c>
-      <c r="M46" s="39">
-        <v>0</v>
-      </c>
-      <c r="N46" s="39">
-        <f>(L46-K46)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O46" s="39">
-        <v>1</v>
-      </c>
-      <c r="R46" s="37" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="61"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="60"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8294,17 +8305,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8315,19 +8326,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="60"/>
       <c r="G49" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I49" s="29">
+        <v>61</v>
+      </c>
+      <c r="I49" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8336,17 +8344,20 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="60"/>
       <c r="G50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8354,141 +8365,138 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="60"/>
       <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="61"/>
+      <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="I51" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="29" t="s">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>696</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>696</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="61"/>
+      <c r="G54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>698</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H55" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="61"/>
-      <c r="G53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I53" s="29">
+      <c r="I55" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="39">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="39">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="39">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>696</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>696</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="61"/>
-      <c r="G55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>697</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I56" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="40"/>
-      <c r="K56" s="39">
-        <v>0.78</v>
-      </c>
-      <c r="L56" s="39">
-        <v>0.98</v>
-      </c>
-      <c r="M56" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="39">
-        <f>(L56-K56)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O56" s="39">
-        <v>1</v>
-      </c>
-      <c r="R56" s="37" t="s">
+      <c r="R55" s="37" t="s">
         <v>756</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8496,16 +8504,19 @@
         <v>21</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8514,10 +8525,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="29" t="s">
@@ -8535,40 +8546,37 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F60" s="61"/>
       <c r="G60" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I60" s="29">
+        <v>61</v>
+      </c>
+      <c r="I60" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8577,17 +8585,20 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="61"/>
       <c r="G61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8595,20 +8606,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" s="61"/>
       <c r="G62" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I62" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8616,120 +8627,117 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" s="61"/>
       <c r="G63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>702</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="61"/>
+      <c r="G65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="F66" s="47"/>
+      <c r="G66" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H66" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="61"/>
-      <c r="G64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I64" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>702</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>701</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>701</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="61"/>
-      <c r="G66" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>704</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>705</v>
-      </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I67" s="37">
+      <c r="I66" s="37">
         <v>4</v>
       </c>
-      <c r="J67" s="40"/>
-      <c r="K67" s="39">
-        <v>2</v>
-      </c>
-      <c r="L67" s="39">
+      <c r="J66" s="40"/>
+      <c r="K66" s="39">
+        <v>2</v>
+      </c>
+      <c r="L66" s="39">
         <v>5</v>
       </c>
-      <c r="M67" s="39">
+      <c r="M66" s="39">
         <v>4</v>
       </c>
-      <c r="N67" s="39">
-        <f>(L67-K67)/6</f>
+      <c r="N66" s="39">
+        <f>(L66-K66)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="39">
+      <c r="O66" s="39">
         <v>0.25</v>
       </c>
-      <c r="R67" s="37" t="s">
+      <c r="R66" s="37" t="s">
         <v>756</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="61"/>
+      <c r="G67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8737,16 +8745,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F68" s="61"/>
       <c r="G68" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I68" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8755,10 +8766,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F69" s="61"/>
       <c r="G69" s="29" t="s">
@@ -8776,17 +8787,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="61"/>
       <c r="G70" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8797,19 +8808,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="61"/>
       <c r="G71" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I71" s="29">
+        <v>61</v>
+      </c>
+      <c r="I71" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8818,17 +8826,20 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="61"/>
       <c r="G72" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I72" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8836,20 +8847,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="61"/>
       <c r="G73" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I73" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8857,79 +8868,99 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="61"/>
       <c r="G74" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="61"/>
+      <c r="G76" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>706</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="47"/>
+      <c r="G77" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H77" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="61"/>
-      <c r="G75" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I75" s="29">
+      <c r="I77" s="37">
+        <v>0</v>
+      </c>
+      <c r="J77" s="40"/>
+      <c r="K77" s="39">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="39">
+        <v>14</v>
+      </c>
+      <c r="M77" s="39">
+        <v>0</v>
+      </c>
+      <c r="N77" s="39">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="61"/>
-      <c r="G77" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>416</v>
+      <c r="R77" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8937,10 +8968,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>243</v>
+        <v>708</v>
       </c>
       <c r="F78" s="47"/>
       <c r="G78" s="37" t="s">
@@ -8954,17 +8985,17 @@
       </c>
       <c r="J78" s="40"/>
       <c r="K78" s="39">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L78" s="39">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M78" s="39">
         <v>0</v>
       </c>
       <c r="N78" s="39">
         <f>(L78-K78)/6</f>
-        <v>5.666666666666667</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="O78" s="39">
         <v>1</v>
@@ -8973,45 +9004,22 @@
         <v>756</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="37" t="s">
-        <v>707</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>708</v>
-      </c>
-      <c r="F79" s="47"/>
-      <c r="G79" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I79" s="37">
-        <v>0</v>
-      </c>
-      <c r="J79" s="40"/>
-      <c r="K79" s="39">
-        <v>-25</v>
-      </c>
-      <c r="L79" s="39">
-        <v>30</v>
-      </c>
-      <c r="M79" s="39">
-        <v>0</v>
-      </c>
-      <c r="N79" s="39">
-        <f>(L79-K79)/6</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="O79" s="39">
-        <v>1</v>
-      </c>
-      <c r="R79" s="37" t="s">
-        <v>756</v>
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="61"/>
+      <c r="G79" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9019,16 +9027,19 @@
         <v>21</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F80" s="61"/>
       <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
@@ -9037,10 +9048,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F81" s="61"/>
       <c r="G81" s="29" t="s">
@@ -9058,40 +9069,37 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="61"/>
       <c r="G82" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="61"/>
+        <v>52</v>
+      </c>
+      <c r="F83" s="60"/>
       <c r="G83" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I83" s="29">
+        <v>61</v>
+      </c>
+      <c r="I83" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9100,17 +9108,20 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="60"/>
       <c r="G84" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I84" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9118,20 +9129,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="60"/>
       <c r="G85" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I85" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9139,58 +9150,78 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="60"/>
       <c r="G86" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="E88" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="47"/>
+      <c r="G88" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="60"/>
-      <c r="G87" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="29">
+      <c r="H88" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="I88" s="37">
+        <v>0</v>
+      </c>
+      <c r="J88" s="40"/>
+      <c r="K88" s="39">
+        <v>-6</v>
+      </c>
+      <c r="L88" s="39">
+        <v>2</v>
+      </c>
+      <c r="M88" s="39">
+        <v>0</v>
+      </c>
+      <c r="N88" s="39">
+        <f>(L88-K88)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O88" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="43" t="s">
-        <v>66</v>
+      <c r="R88" s="37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9198,10 +9229,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F89" s="47"/>
       <c r="G89" s="37" t="s">
@@ -9218,14 +9249,14 @@
         <v>-6</v>
       </c>
       <c r="L89" s="39">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M89" s="39">
         <v>0</v>
       </c>
       <c r="N89" s="39">
         <f>(L89-K89)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="O89" s="39">
         <v>1</v>
@@ -9234,111 +9265,113 @@
         <v>756</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="37" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="60"/>
+      <c r="G90" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="43"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+    </row>
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="37"/>
+      <c r="B92" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="37" t="s">
-        <v>654</v>
-      </c>
-      <c r="E90" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="47"/>
-      <c r="G90" s="37" t="s">
+      <c r="C92" s="47"/>
+      <c r="D92" s="47" t="s">
+        <v>676</v>
+      </c>
+      <c r="E92" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="37" t="s">
-        <v>653</v>
-      </c>
-      <c r="I90" s="37">
-        <v>0</v>
-      </c>
-      <c r="J90" s="40"/>
-      <c r="K90" s="39">
-        <v>-6</v>
-      </c>
-      <c r="L90" s="39">
-        <v>3.9</v>
-      </c>
-      <c r="M90" s="39">
-        <v>0</v>
-      </c>
-      <c r="N90" s="39">
-        <f>(L90-K90)/6</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="O90" s="39">
+      <c r="H92" s="47"/>
+      <c r="I92" s="47">
         <v>1</v>
       </c>
-      <c r="R90" s="37" t="s">
+      <c r="J92" s="47"/>
+      <c r="K92" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="M92" s="39">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="37">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="60"/>
-      <c r="G91" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="E92" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="43"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
-      <c r="Q92" s="43"/>
-      <c r="R92" s="43"/>
-    </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="47"/>
       <c r="D93" s="47" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F93" s="47"/>
       <c r="G93" s="47" t="s">
@@ -9350,7 +9383,7 @@
       </c>
       <c r="J93" s="47"/>
       <c r="K93" s="47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93" s="47">
         <v>4.5</v>
@@ -9358,8 +9391,7 @@
       <c r="M93" s="39">
         <v>1.75</v>
       </c>
-      <c r="N93" s="37">
-        <f>1.5/6</f>
+      <c r="N93" s="47">
         <v>0.25</v>
       </c>
       <c r="O93" s="47">
@@ -9378,10 +9410,10 @@
       </c>
       <c r="C94" s="47"/>
       <c r="D94" s="47" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E94" s="47" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="47" t="s">
@@ -9393,110 +9425,111 @@
       </c>
       <c r="J94" s="47"/>
       <c r="K94" s="47">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L94" s="47">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M94" s="39">
         <v>1.75</v>
       </c>
-      <c r="N94" s="47">
+      <c r="N94" s="39">
         <v>0.25</v>
       </c>
-      <c r="O94" s="47">
+      <c r="O94" s="39">
         <v>0.1</v>
       </c>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
       <c r="R94" s="37" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47" t="s">
+      <c r="T94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="37"/>
+      <c r="B96" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47" t="s">
-        <v>680</v>
-      </c>
-      <c r="E95" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47" t="s">
+      <c r="C96" s="47"/>
+      <c r="D96" s="47" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47">
+      <c r="H96" s="47"/>
+      <c r="I96" s="47">
         <v>1</v>
       </c>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47">
+      <c r="J96" s="47"/>
+      <c r="K96" s="47">
         <v>0.5</v>
       </c>
-      <c r="L95" s="47">
-        <v>3</v>
-      </c>
-      <c r="M95" s="39">
+      <c r="L96" s="47">
+        <v>4</v>
+      </c>
+      <c r="M96" s="39">
         <v>1.75</v>
       </c>
-      <c r="N95" s="39">
+      <c r="N96" s="37">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O95" s="39">
+      <c r="O96" s="47">
         <v>0.1</v>
       </c>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="37" t="s">
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37" t="s">
         <v>756</v>
       </c>
-      <c r="T95" s="30"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="46" t="s">
-        <v>684</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="43"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="47"/>
       <c r="D97" s="47" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="47"/>
       <c r="G97" s="47" t="s">
@@ -9516,8 +9549,7 @@
       <c r="M97" s="39">
         <v>1.75</v>
       </c>
-      <c r="N97" s="37">
-        <f>1.5/6</f>
+      <c r="N97" s="47">
         <v>0.25</v>
       </c>
       <c r="O97" s="47">
@@ -9536,10 +9568,10 @@
       </c>
       <c r="C98" s="47"/>
       <c r="D98" s="47" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E98" s="47" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F98" s="47"/>
       <c r="G98" s="47" t="s">
@@ -9554,186 +9586,148 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" s="39">
         <v>1.75</v>
       </c>
-      <c r="N98" s="47">
+      <c r="N98" s="39">
         <v>0.25</v>
       </c>
-      <c r="O98" s="47">
+      <c r="O98" s="39">
         <v>0.1</v>
       </c>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
       <c r="R98" s="37" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47" t="s">
+    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>713</v>
+      </c>
+      <c r="E100" s="53" t="s">
+        <v>711</v>
+      </c>
+      <c r="F100" s="60"/>
+      <c r="G100" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="53" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="53">
+        <v>1</v>
+      </c>
+      <c r="J100" s="56"/>
+      <c r="K100" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="55">
+        <v>1</v>
+      </c>
+      <c r="M100" s="55">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="55">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47" t="s">
-        <v>688</v>
-      </c>
-      <c r="E99" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47" t="s">
+      <c r="D101" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="E101" s="37" t="s">
+        <v>712</v>
+      </c>
+      <c r="F101" s="47"/>
+      <c r="G101" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47">
-        <v>1</v>
-      </c>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="L99" s="47">
-        <v>3</v>
-      </c>
-      <c r="M99" s="39">
-        <v>1.75</v>
-      </c>
-      <c r="N99" s="39">
-        <v>0.25</v>
-      </c>
-      <c r="O99" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="37" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="43" t="s">
-        <v>710</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="D100" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="E100" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="53" t="s">
-        <v>713</v>
-      </c>
-      <c r="E101" s="53" t="s">
-        <v>711</v>
-      </c>
-      <c r="F101" s="60"/>
-      <c r="G101" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="53" t="s">
+      <c r="H101" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="53">
-        <v>1</v>
-      </c>
-      <c r="J101" s="56"/>
-      <c r="K101" s="55">
-        <v>0.9</v>
-      </c>
-      <c r="L101" s="55">
-        <v>1</v>
-      </c>
-      <c r="M101" s="55">
-        <v>0.95</v>
-      </c>
-      <c r="N101" s="55">
+      <c r="I101" s="37">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="40"/>
+      <c r="K101" s="39">
+        <v>0</v>
+      </c>
+      <c r="L101" s="39">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="39">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="39">
         <f>(L101-K101)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O101" s="55">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="O101" s="39">
+        <v>50</v>
       </c>
       <c r="R101" s="37" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="37" t="s">
-        <v>714</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>712</v>
-      </c>
-      <c r="F102" s="47"/>
-      <c r="G102" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I102" s="37">
-        <v>1450</v>
-      </c>
-      <c r="J102" s="40"/>
-      <c r="K102" s="39">
-        <v>0</v>
-      </c>
-      <c r="L102" s="39">
-        <v>3000</v>
-      </c>
-      <c r="M102" s="39">
-        <v>1450</v>
-      </c>
-      <c r="N102" s="39">
-        <f>(L102-K102)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O102" s="39">
-        <v>50</v>
-      </c>
-      <c r="R102" s="37" t="s">
-        <v>756</v>
-      </c>
+    <row r="102" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="34"/>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="34"/>
+      <c r="F103" s="60"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="60"/>
+      <c r="F104" s="44"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
@@ -9773,7 +9767,6 @@
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="44"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10125,12 +10118,8 @@
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA127"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_calibration_SPEA_2013.xlsx
+++ b/projects/SEB_calibration_SPEA_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2313,48 +2313,9 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Failed F Value</t>
   </si>
   <si>
@@ -2380,6 +2341,45 @@
   </si>
   <si>
     <t>max queued jobs</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -6672,21 +6672,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6695,7 +6695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
@@ -6726,18 +6726,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
@@ -6884,11 +6884,11 @@
         <v>751</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="29" t="s">
         <v>4</v>
       </c>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="30" t="s">
         <v>560</v>
       </c>
@@ -6929,19 +6929,19 @@
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="B24" s="29">
         <v>2</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="A25" s="30" t="s">
         <v>561</v>
       </c>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="A26" s="30" t="s">
         <v>752</v>
       </c>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="A27" s="30" t="s">
         <v>753</v>
       </c>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="A28" s="30" t="s">
         <v>564</v>
       </c>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="A29" s="30" t="s">
         <v>535</v>
       </c>
@@ -6997,11 +6997,11 @@
         <v>536</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="A30" s="30" t="s">
         <v>537</v>
       </c>
@@ -7009,11 +7009,11 @@
         <v>2</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="A31" s="30" t="s">
         <v>690</v>
       </c>
@@ -7021,44 +7021,44 @@
         <v>0</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="A32" s="30" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="B32" s="28">
         <v>1E+18</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="30" customFormat="1">
       <c r="A33" s="30" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="B33" s="29">
         <v>1</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="D33" s="32"/>
     </row>
-    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="30" customFormat="1">
       <c r="A34" s="30" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="B34" s="30">
         <v>40</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -7071,7 +7071,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="30" customFormat="1">
       <c r="A39" s="30" t="s">
         <v>31</v>
       </c>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A41" s="11" t="s">
         <v>34</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="30" t="s">
         <v>632</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="30" customFormat="1">
       <c r="B43" s="25"/>
       <c r="D43" s="2"/>
     </row>
@@ -7148,7 +7148,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7161,37 +7160,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7227,7 +7226,7 @@
       <c r="Y1" s="63"/>
       <c r="Z1" s="63"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7244,7 +7243,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="34" customFormat="1">
       <c r="A4" s="34" t="b">
         <v>1</v>
       </c>
@@ -7340,7 +7339,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7359,7 +7358,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7378,7 +7377,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
@@ -7397,7 +7396,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
@@ -7416,7 +7415,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
@@ -7435,7 +7434,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7454,7 +7453,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7473,7 +7472,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
@@ -7492,7 +7491,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
@@ -7511,7 +7510,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="34" customFormat="1">
       <c r="A14" s="34" t="b">
         <v>1</v>
       </c>
@@ -7530,7 +7529,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7549,7 +7548,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7568,7 +7567,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7587,7 +7586,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7606,7 +7605,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7625,7 +7624,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7644,7 +7643,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7663,7 +7662,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7682,7 +7681,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="42" customFormat="1">
       <c r="A23" s="42" t="b">
         <v>1</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -7721,7 +7720,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B25" s="37" t="s">
         <v>22</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="29" customFormat="1">
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="53" customFormat="1">
       <c r="B27" s="53" t="s">
         <v>21</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7867,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7885,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7904,7 +7903,7 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="43" customFormat="1">
       <c r="A33" s="43" t="b">
         <v>1</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29" t="s">
         <v>21</v>
@@ -7951,7 +7950,7 @@
       <c r="O34" s="3"/>
       <c r="Q34" s="36"/>
     </row>
-    <row r="35" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="49" customFormat="1" ht="15">
       <c r="B35" s="49" t="s">
         <v>21</v>
       </c>
@@ -7990,7 +7989,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -8017,7 +8016,7 @@
       <c r="O36" s="3"/>
       <c r="Q36" s="36"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -8044,7 +8043,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="36"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -8071,7 +8070,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="36"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -8098,7 +8097,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="36"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8125,7 +8124,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="36"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8152,7 +8151,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="36"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8179,7 +8178,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="36"/>
     </row>
-    <row r="43" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="43" customFormat="1">
       <c r="A43" s="43" t="b">
         <v>1</v>
       </c>
@@ -8196,7 +8195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B45" s="37" t="s">
         <v>22</v>
       </c>
@@ -8258,7 +8257,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B46" s="29" t="s">
         <v>21</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8360,7 +8359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8381,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8402,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="43" t="b">
         <v>1</v>
       </c>
@@ -8419,7 +8418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B54" s="29" t="s">
         <v>21</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B55" s="37" t="s">
         <v>22</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="29" customFormat="1">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8520,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8580,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8622,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8643,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="43" t="b">
         <v>1</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B66" s="37" t="s">
         <v>22</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
@@ -8740,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8782,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8803,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8821,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="43" t="b">
         <v>1</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B76" s="29" t="s">
         <v>21</v>
       </c>
@@ -8922,7 +8921,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B77" s="37" t="s">
         <v>22</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B78" s="37" t="s">
         <v>22</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -9064,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9145,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9166,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="43" customFormat="1">
       <c r="A87" s="43" t="b">
         <v>1</v>
       </c>
@@ -9183,7 +9182,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="37" customFormat="1" ht="15">
       <c r="B88" s="37" t="s">
         <v>22</v>
       </c>
@@ -9224,7 +9223,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="37" customFormat="1" ht="15">
       <c r="B89" s="37" t="s">
         <v>22</v>
       </c>
@@ -9265,7 +9264,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="B90" s="30" t="s">
         <v>21</v>
       </c>
@@ -9288,7 +9287,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15">
       <c r="A91" s="46" t="b">
         <v>1</v>
       </c>
@@ -9318,7 +9317,7 @@
       <c r="Q91" s="43"/>
       <c r="R91" s="43"/>
     </row>
-    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A92" s="37"/>
       <c r="B92" s="47" t="s">
         <v>22</v>
@@ -9361,7 +9360,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="47"/>
       <c r="B93" s="47" t="s">
         <v>22</v>
@@ -9403,7 +9402,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="47"/>
       <c r="B94" s="47" t="s">
         <v>22</v>
@@ -9446,7 +9445,7 @@
       </c>
       <c r="T94" s="30"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15">
       <c r="A95" s="46" t="b">
         <v>1</v>
       </c>
@@ -9476,7 +9475,7 @@
       <c r="Q95" s="43"/>
       <c r="R95" s="43"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="37"/>
       <c r="B96" s="47" t="s">
         <v>22</v>
@@ -9519,7 +9518,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="47"/>
       <c r="B97" s="47" t="s">
         <v>22</v>
@@ -9561,7 +9560,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="47"/>
       <c r="B98" s="47" t="s">
         <v>22</v>
@@ -9603,7 +9602,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="43" t="b">
         <v>1</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="53" customFormat="1">
       <c r="B100" s="53" t="s">
         <v>21</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B101" s="37" t="s">
         <v>22</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="34" customFormat="1">
       <c r="A102" s="34" t="b">
         <v>1</v>
       </c>
@@ -9710,10 +9709,10 @@
         <v>755</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E102" s="34" t="s">
         <v>231</v>
@@ -9721,400 +9720,400 @@
       <c r="H102" s="35"/>
       <c r="I102" s="35"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="F103" s="60"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="44"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="44"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="44"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="44"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="44"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="44"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="44"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="44"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
@@ -10124,7 +10123,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10139,25 +10137,25 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="57"/>
       <c r="C1" s="5"/>
@@ -10173,7 +10171,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10211,7 +10209,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10250,7 +10248,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10279,14 +10277,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10308,14 +10306,14 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10337,14 +10335,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10365,14 +10363,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10393,14 +10391,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10421,14 +10419,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10449,14 +10447,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10477,14 +10475,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10505,14 +10503,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10528,14 +10526,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>692</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10551,14 +10549,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>693</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10574,13 +10572,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>694</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10595,180 +10593,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10785,19 +10782,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10816,7 +10813,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10837,7 +10834,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10860,7 +10857,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10883,7 +10880,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10906,7 +10903,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10929,7 +10926,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10952,7 +10949,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10975,7 +10972,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10998,7 +10995,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11021,7 +11018,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11040,7 +11037,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11061,7 +11058,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11084,7 +11081,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11107,7 +11104,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11130,7 +11127,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11153,7 +11150,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11176,7 +11173,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11199,7 +11196,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11222,7 +11219,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11245,7 +11242,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11264,7 +11261,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11287,7 +11284,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11310,7 +11307,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11333,7 +11330,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11356,7 +11353,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11379,7 +11376,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11402,7 +11399,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11425,7 +11422,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11448,7 +11445,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11471,7 +11468,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11490,7 +11487,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11511,7 +11508,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11534,7 +11531,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11557,7 +11554,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11580,7 +11577,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11603,7 +11600,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11626,7 +11623,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11649,7 +11646,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11672,7 +11669,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11695,7 +11692,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11714,7 +11711,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11735,7 +11732,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11758,7 +11755,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11781,7 +11778,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11804,7 +11801,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11827,7 +11824,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11850,7 +11847,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11873,7 +11870,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11896,7 +11893,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11919,7 +11916,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11938,7 +11935,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11959,7 +11956,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11982,7 +11979,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12005,7 +12002,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12028,7 +12025,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12051,7 +12048,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12074,7 +12071,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12097,7 +12094,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12120,7 +12117,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12143,7 +12140,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12162,7 +12159,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12183,7 +12180,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12208,7 +12205,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12231,7 +12228,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12254,7 +12251,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12277,7 +12274,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12300,7 +12297,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12323,7 +12320,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12346,7 +12343,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12369,7 +12366,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12392,7 +12389,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12411,7 +12408,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12432,7 +12429,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12455,7 +12452,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12480,7 +12477,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12503,7 +12500,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12526,7 +12523,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12549,7 +12546,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12572,7 +12569,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12595,7 +12592,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12618,7 +12615,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12641,7 +12638,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12664,7 +12661,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12687,7 +12684,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12710,7 +12707,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12729,7 +12726,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12752,7 +12749,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12775,7 +12772,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12798,7 +12795,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12821,7 +12818,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12844,7 +12841,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12867,7 +12864,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12890,7 +12887,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12913,7 +12910,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12936,7 +12933,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12959,7 +12956,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12978,7 +12975,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13003,7 +13000,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13022,7 +13019,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13043,7 +13040,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13068,7 +13065,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13087,7 +13084,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13110,7 +13107,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13135,7 +13132,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13158,7 +13155,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13179,7 +13176,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13198,7 +13195,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13223,7 +13220,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13246,7 +13243,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13269,7 +13266,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13292,7 +13289,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13315,7 +13312,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13338,7 +13335,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13361,7 +13358,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13380,7 +13377,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13403,7 +13400,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13426,7 +13423,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13449,7 +13446,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13468,7 +13465,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13491,7 +13488,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13514,7 +13511,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13537,7 +13534,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13560,7 +13557,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13583,7 +13580,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13606,7 +13603,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13625,7 +13622,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13650,7 +13647,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13673,7 +13670,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13696,7 +13693,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13719,7 +13716,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13742,7 +13739,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13765,7 +13762,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13788,7 +13785,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13811,7 +13808,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13834,7 +13831,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13853,7 +13850,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13878,7 +13875,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13899,7 +13896,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13922,7 +13919,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13945,7 +13942,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13968,7 +13965,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13991,7 +13988,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14014,7 +14011,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14037,7 +14034,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14060,7 +14057,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14083,7 +14080,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14106,7 +14103,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14129,7 +14126,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14152,7 +14149,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14175,7 +14172,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14194,7 +14191,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14217,7 +14214,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14236,7 +14233,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14259,7 +14256,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14282,7 +14279,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14301,7 +14298,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14326,7 +14323,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14349,7 +14346,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14372,7 +14369,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14395,7 +14392,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14418,7 +14415,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14441,7 +14438,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14464,7 +14461,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14487,7 +14484,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14510,7 +14507,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14533,7 +14530,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14552,7 +14549,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14577,7 +14574,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14600,7 +14597,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14623,7 +14620,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14646,7 +14643,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14669,7 +14666,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14692,7 +14689,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14715,7 +14712,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14738,7 +14735,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14761,7 +14758,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14784,7 +14781,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14803,7 +14800,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14826,7 +14823,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14849,7 +14846,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14872,7 +14869,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14895,7 +14892,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14914,7 +14911,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14937,7 +14934,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14960,7 +14957,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14983,7 +14980,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15006,7 +15003,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15025,7 +15022,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15046,7 +15043,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15069,7 +15066,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15088,7 +15085,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15111,7 +15108,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15136,7 +15133,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15157,7 +15154,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15182,7 +15179,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15207,7 +15204,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15226,7 +15223,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15251,7 +15248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15274,7 +15271,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15297,7 +15294,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15320,7 +15317,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15343,7 +15340,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15366,7 +15363,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15389,7 +15386,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15412,7 +15409,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15435,7 +15432,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15454,7 +15451,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15479,7 +15476,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15502,7 +15499,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15525,7 +15522,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15548,7 +15545,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15571,7 +15568,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15594,7 +15591,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15617,7 +15614,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15640,7 +15637,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15663,7 +15660,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15682,7 +15679,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15703,7 +15700,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15726,7 +15723,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15749,7 +15746,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15772,7 +15769,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15795,7 +15792,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15818,7 +15815,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15841,7 +15838,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15864,7 +15861,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15887,7 +15884,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15910,7 +15907,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15933,7 +15930,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15956,7 +15953,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15979,7 +15976,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16002,7 +15999,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16025,7 +16022,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16048,7 +16045,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16067,7 +16064,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16088,7 +16085,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16111,7 +16108,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16134,7 +16131,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16157,7 +16154,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16180,7 +16177,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16203,7 +16200,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16226,7 +16223,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16249,7 +16246,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16272,7 +16269,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16295,7 +16292,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16318,7 +16315,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16341,7 +16338,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16364,7 +16361,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16387,7 +16384,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16410,7 +16407,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16433,7 +16430,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16452,7 +16449,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16477,7 +16474,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16500,7 +16497,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16523,7 +16520,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16546,7 +16543,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16569,7 +16566,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16588,7 +16585,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16613,7 +16610,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16636,7 +16633,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16655,7 +16652,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16674,7 +16671,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16693,7 +16690,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16714,7 +16711,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16737,7 +16734,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16760,7 +16757,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16783,7 +16780,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16806,7 +16803,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16829,7 +16826,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16852,7 +16849,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16875,7 +16872,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16898,7 +16895,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16921,7 +16918,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16944,7 +16941,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16963,7 +16960,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16986,7 +16983,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17005,7 +17002,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17030,7 +17027,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17053,7 +17050,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17076,7 +17073,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17099,7 +17096,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17122,7 +17119,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17145,7 +17142,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17168,7 +17165,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17191,7 +17188,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17214,7 +17211,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17237,7 +17234,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17260,7 +17257,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17279,7 +17276,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17302,7 +17299,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17321,7 +17318,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17342,7 +17339,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17361,7 +17358,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17382,7 +17379,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17401,7 +17398,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17422,7 +17419,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17441,7 +17438,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17464,7 +17461,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17483,7 +17480,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17508,7 +17505,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17531,7 +17528,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17554,7 +17551,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17577,7 +17574,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17600,7 +17597,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17623,7 +17620,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17646,7 +17643,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17669,7 +17666,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17692,7 +17689,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17711,7 +17708,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17734,7 +17731,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17757,7 +17754,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17780,7 +17777,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17803,7 +17800,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17822,7 +17819,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17845,7 +17842,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17868,7 +17865,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17893,7 +17890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17912,7 +17909,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17937,7 +17934,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17960,7 +17957,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17979,7 +17976,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18000,7 +17997,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18021,7 +18018,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18044,7 +18041,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18063,7 +18060,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18082,7 +18079,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18107,7 +18104,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18132,7 +18129,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18146,7 +18143,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18169,7 +18166,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18189,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18209,7 +18206,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18229,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18246,7 +18243,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18269,7 +18266,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18292,7 +18289,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18306,7 +18303,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18329,7 +18326,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18352,7 +18349,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18372,7 +18369,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18392,7 +18389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18409,7 +18406,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18435,7 +18432,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18464,7 +18461,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18503,7 +18500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18517,7 +18514,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18537,7 +18534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18551,7 +18548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18571,7 +18568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18591,7 +18588,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18611,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18631,7 +18628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18651,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18671,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18691,7 +18688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18711,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18731,7 +18728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18745,7 +18742,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18765,7 +18762,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18785,7 +18782,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18801,7 +18798,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18827,7 +18824,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18868,7 +18865,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18882,7 +18879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18902,7 +18899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18916,7 +18913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18938,7 +18935,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18955,17 +18951,17 @@
       <selection activeCell="O17" sqref="O17:Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -18976,7 +18972,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -18990,7 +18986,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -19004,7 +19000,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -19018,7 +19014,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -19032,7 +19028,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -19046,7 +19042,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -19060,7 +19056,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -19074,7 +19070,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -19088,7 +19084,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19102,7 +19098,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19116,7 +19112,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19127,8 +19123,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19154,7 +19150,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19195,7 +19191,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19236,7 +19232,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19268,7 +19264,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19300,7 +19296,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19329,7 +19325,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19361,7 +19357,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19381,7 +19377,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19404,7 +19400,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19415,7 +19411,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19423,7 +19419,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19436,7 +19432,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
